--- a/Daily Update/Daily Updates.xlsx
+++ b/Daily Update/Daily Updates.xlsx
@@ -50,7 +50,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="25" uniqueCount="24">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="32" uniqueCount="30">
   <si>
     <t>SQL by Mr.varun</t>
   </si>
@@ -136,6 +136,28 @@
   </si>
   <si>
     <t>servlet(request object)</t>
+  </si>
+  <si>
+    <t xml:space="preserve">sub query
+(nested subquery) </t>
+  </si>
+  <si>
+    <t>nested subquery
+Exception,assertion</t>
+  </si>
+  <si>
+    <t>serialization
+deserialization
+enumeration</t>
+  </si>
+  <si>
+    <t>cartesian join,inner join</t>
+  </si>
+  <si>
+    <t>subquery</t>
+  </si>
+  <si>
+    <t>servlet(response object)</t>
   </si>
 </sst>
 </file>
@@ -219,18 +241,11 @@
   <cellXfs count="10">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1"/>
-    <xf numFmtId="14" fontId="1" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
     <xf numFmtId="14" fontId="1" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="top" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
@@ -239,7 +254,16 @@
       <alignment horizontal="left"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="14" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -538,120 +562,136 @@
   <dimension ref="A1:H22"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="E4" sqref="E4"/>
+      <selection activeCell="B16" sqref="B16"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
   <cols>
     <col min="1" max="1" width="13.5" customWidth="1"/>
-    <col min="2" max="2" width="18.75" customWidth="1"/>
-    <col min="3" max="3" width="16.875" customWidth="1"/>
+    <col min="2" max="2" width="22.625" customWidth="1"/>
+    <col min="3" max="3" width="23.5" customWidth="1"/>
     <col min="4" max="4" width="23.875" customWidth="1"/>
     <col min="5" max="5" width="19.25" customWidth="1"/>
     <col min="6" max="6" width="20.125" customWidth="1"/>
     <col min="7" max="7" width="16" customWidth="1"/>
-    <col min="8" max="8" width="17.75" customWidth="1"/>
+    <col min="8" max="8" width="19.125" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:8">
-      <c r="A1" s="8" t="s">
+      <c r="A1" s="5" t="s">
         <v>17</v>
       </c>
-      <c r="B1" s="8"/>
-      <c r="C1" s="8"/>
-      <c r="D1" s="8"/>
-      <c r="E1" s="8"/>
-      <c r="F1" s="8"/>
-      <c r="G1" s="8"/>
-      <c r="H1" s="8"/>
+      <c r="B1" s="5"/>
+      <c r="C1" s="5"/>
+      <c r="D1" s="5"/>
+      <c r="E1" s="5"/>
+      <c r="F1" s="5"/>
+      <c r="G1" s="5"/>
+      <c r="H1" s="5"/>
     </row>
     <row r="2" spans="1:8">
-      <c r="A2" s="5" t="s">
+      <c r="A2" s="3" t="s">
         <v>13</v>
       </c>
-      <c r="B2" s="7" t="s">
+      <c r="B2" s="4" t="s">
         <v>8</v>
       </c>
-      <c r="C2" s="7" t="s">
+      <c r="C2" s="4" t="s">
         <v>1</v>
       </c>
-      <c r="D2" s="7" t="s">
+      <c r="D2" s="4" t="s">
         <v>3</v>
       </c>
-      <c r="E2" s="7" t="s">
+      <c r="E2" s="4" t="s">
         <v>6</v>
       </c>
-      <c r="F2" s="7" t="s">
+      <c r="F2" s="4" t="s">
         <v>7</v>
       </c>
-      <c r="G2" s="7" t="s">
+      <c r="G2" s="4" t="s">
         <v>10</v>
       </c>
-      <c r="H2" s="7" t="s">
+      <c r="H2" s="4" t="s">
         <v>12</v>
       </c>
     </row>
     <row r="3" spans="1:8" ht="21.75" customHeight="1">
-      <c r="A3" s="7" t="s">
+      <c r="A3" s="4" t="s">
         <v>14</v>
       </c>
-      <c r="B3" s="7" t="s">
+      <c r="B3" s="4" t="s">
         <v>0</v>
       </c>
-      <c r="C3" s="7" t="s">
+      <c r="C3" s="4" t="s">
         <v>2</v>
       </c>
-      <c r="D3" s="7" t="s">
+      <c r="D3" s="4" t="s">
         <v>4</v>
       </c>
-      <c r="E3" s="7" t="s">
+      <c r="E3" s="4" t="s">
         <v>5</v>
       </c>
-      <c r="F3" s="7" t="s">
+      <c r="F3" s="4" t="s">
         <v>9</v>
       </c>
-      <c r="G3" s="7" t="s">
+      <c r="G3" s="4" t="s">
         <v>11</v>
       </c>
-      <c r="H3" s="7" t="s">
+      <c r="H3" s="4" t="s">
         <v>2</v>
       </c>
     </row>
     <row r="4" spans="1:8" ht="30">
-      <c r="A4" s="4" t="s">
+      <c r="A4" s="2" t="s">
         <v>19</v>
       </c>
-      <c r="B4" s="5" t="s">
+      <c r="B4" s="3" t="s">
         <v>15</v>
       </c>
-      <c r="C4" s="5" t="s">
+      <c r="C4" s="3" t="s">
         <v>16</v>
       </c>
       <c r="D4" s="6" t="s">
         <v>18</v>
       </c>
-      <c r="E4" s="9" t="s">
+      <c r="E4" s="3" t="s">
         <v>20</v>
       </c>
-      <c r="F4" s="9" t="s">
+      <c r="F4" s="3" t="s">
         <v>21</v>
       </c>
-      <c r="G4" s="9" t="s">
+      <c r="G4" s="3" t="s">
         <v>22</v>
       </c>
-      <c r="H4" s="1" t="s">
+      <c r="H4" s="8" t="s">
         <v>23</v>
       </c>
     </row>
-    <row r="5" spans="1:8">
-      <c r="A5" s="3"/>
-      <c r="B5" s="2"/>
-      <c r="C5" s="2"/>
-      <c r="D5" s="2"/>
-      <c r="E5" s="2"/>
-      <c r="F5" s="2"/>
-      <c r="G5" s="2"/>
-      <c r="H5" s="1"/>
+    <row r="5" spans="1:8" ht="45">
+      <c r="A5" s="9">
+        <v>43956</v>
+      </c>
+      <c r="B5" s="6" t="s">
+        <v>24</v>
+      </c>
+      <c r="C5" s="6" t="s">
+        <v>22</v>
+      </c>
+      <c r="D5" s="6" t="s">
+        <v>25</v>
+      </c>
+      <c r="E5" s="7" t="s">
+        <v>26</v>
+      </c>
+      <c r="F5" s="3" t="s">
+        <v>27</v>
+      </c>
+      <c r="G5" s="3" t="s">
+        <v>28</v>
+      </c>
+      <c r="H5" s="3" t="s">
+        <v>29</v>
+      </c>
     </row>
     <row r="6" spans="1:8">
       <c r="A6" s="1"/>

--- a/Daily Update/Daily Updates.xlsx
+++ b/Daily Update/Daily Updates.xlsx
@@ -50,7 +50,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="32" uniqueCount="30">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="46" uniqueCount="44">
   <si>
     <t>SQL by Mr.varun</t>
   </si>
@@ -158,6 +158,54 @@
   </si>
   <si>
     <t>servlet(response object)</t>
+  </si>
+  <si>
+    <t>types od subquery</t>
+  </si>
+  <si>
+    <t>servlet hierarchy</t>
+  </si>
+  <si>
+    <t>Classification of application</t>
+  </si>
+  <si>
+    <t xml:space="preserve">types od subquery
+Classification of application
+</t>
+  </si>
+  <si>
+    <t>object cloning</t>
+  </si>
+  <si>
+    <t>natural join</t>
+  </si>
+  <si>
+    <t>subquery types</t>
+  </si>
+  <si>
+    <t>employee manager
+ relationship</t>
+  </si>
+  <si>
+    <t>types of netwrok,RDBMS</t>
+  </si>
+  <si>
+    <t>presentation on Classification 
+application ,types of 
+network</t>
+  </si>
+  <si>
+    <t xml:space="preserve">started multithreading </t>
+  </si>
+  <si>
+    <t>outer join</t>
+  </si>
+  <si>
+    <t>(new group made)</t>
+  </si>
+  <si>
+    <t>GenericServlet &amp;
+HttpServlet</t>
   </si>
 </sst>
 </file>
@@ -238,7 +286,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="10">
+  <cellXfs count="14">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1"/>
     <xf numFmtId="14" fontId="1" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
@@ -250,20 +298,30 @@
     <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="14" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="14" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
+    <xf numFmtId="14" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="14" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -561,8 +619,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <dimension ref="A1:H22"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="B16" sqref="B16"/>
+    <sheetView tabSelected="1" topLeftCell="B1" workbookViewId="0">
+      <selection activeCell="G7" sqref="G7"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
@@ -578,16 +636,16 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:8">
-      <c r="A1" s="5" t="s">
+      <c r="A1" s="11" t="s">
         <v>17</v>
       </c>
-      <c r="B1" s="5"/>
-      <c r="C1" s="5"/>
-      <c r="D1" s="5"/>
-      <c r="E1" s="5"/>
-      <c r="F1" s="5"/>
-      <c r="G1" s="5"/>
-      <c r="H1" s="5"/>
+      <c r="B1" s="11"/>
+      <c r="C1" s="11"/>
+      <c r="D1" s="11"/>
+      <c r="E1" s="11"/>
+      <c r="F1" s="11"/>
+      <c r="G1" s="11"/>
+      <c r="H1" s="11"/>
     </row>
     <row r="2" spans="1:8">
       <c r="A2" s="3" t="s">
@@ -651,7 +709,7 @@
       <c r="C4" s="3" t="s">
         <v>16</v>
       </c>
-      <c r="D4" s="6" t="s">
+      <c r="D4" s="5" t="s">
         <v>18</v>
       </c>
       <c r="E4" s="3" t="s">
@@ -663,24 +721,24 @@
       <c r="G4" s="3" t="s">
         <v>22</v>
       </c>
-      <c r="H4" s="8" t="s">
+      <c r="H4" s="7" t="s">
         <v>23</v>
       </c>
     </row>
     <row r="5" spans="1:8" ht="45">
-      <c r="A5" s="9">
+      <c r="A5" s="8">
         <v>43956</v>
       </c>
-      <c r="B5" s="6" t="s">
+      <c r="B5" s="5" t="s">
         <v>24</v>
       </c>
-      <c r="C5" s="6" t="s">
+      <c r="C5" s="5" t="s">
         <v>22</v>
       </c>
-      <c r="D5" s="6" t="s">
+      <c r="D5" s="5" t="s">
         <v>25</v>
       </c>
-      <c r="E5" s="7" t="s">
+      <c r="E5" s="6" t="s">
         <v>26</v>
       </c>
       <c r="F5" s="3" t="s">
@@ -693,25 +751,57 @@
         <v>29</v>
       </c>
     </row>
-    <row r="6" spans="1:8">
-      <c r="A6" s="1"/>
-      <c r="B6" s="1"/>
-      <c r="C6" s="1"/>
-      <c r="D6" s="1"/>
-      <c r="E6" s="1"/>
-      <c r="F6" s="1"/>
-      <c r="G6" s="1"/>
-      <c r="H6" s="1"/>
-    </row>
-    <row r="7" spans="1:8">
-      <c r="A7" s="1"/>
-      <c r="B7" s="1"/>
-      <c r="C7" s="1"/>
-      <c r="D7" s="1"/>
-      <c r="E7" s="1"/>
-      <c r="F7" s="1"/>
-      <c r="G7" s="1"/>
-      <c r="H7" s="1"/>
+    <row r="6" spans="1:8" ht="45">
+      <c r="A6" s="10">
+        <v>43957</v>
+      </c>
+      <c r="B6" s="3" t="s">
+        <v>30</v>
+      </c>
+      <c r="C6" s="7" t="s">
+        <v>32</v>
+      </c>
+      <c r="D6" s="5" t="s">
+        <v>33</v>
+      </c>
+      <c r="E6" s="3" t="s">
+        <v>34</v>
+      </c>
+      <c r="F6" s="3" t="s">
+        <v>35</v>
+      </c>
+      <c r="G6" s="3" t="s">
+        <v>36</v>
+      </c>
+      <c r="H6" s="9" t="s">
+        <v>31</v>
+      </c>
+    </row>
+    <row r="7" spans="1:8" ht="45">
+      <c r="A7" s="12">
+        <v>43958</v>
+      </c>
+      <c r="B7" s="5" t="s">
+        <v>37</v>
+      </c>
+      <c r="C7" s="7" t="s">
+        <v>38</v>
+      </c>
+      <c r="D7" s="13" t="s">
+        <v>39</v>
+      </c>
+      <c r="E7" s="3" t="s">
+        <v>40</v>
+      </c>
+      <c r="F7" s="3" t="s">
+        <v>41</v>
+      </c>
+      <c r="G7" s="3" t="s">
+        <v>42</v>
+      </c>
+      <c r="H7" s="5" t="s">
+        <v>43</v>
+      </c>
     </row>
     <row r="8" spans="1:8">
       <c r="A8" s="1"/>

--- a/Daily Update/Daily Updates.xlsx
+++ b/Daily Update/Daily Updates.xlsx
@@ -45,12 +45,36 @@
         </r>
       </text>
     </comment>
+    <comment ref="A10" authorId="0">
+      <text>
+        <r>
+          <rPr>
+            <b/>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <family val="2"/>
+          </rPr>
+          <t>Windows User:</t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <family val="2"/>
+          </rPr>
+          <t xml:space="preserve">
+</t>
+        </r>
+      </text>
+    </comment>
   </commentList>
 </comments>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="46" uniqueCount="44">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="70" uniqueCount="53">
   <si>
     <t>SQL by Mr.varun</t>
   </si>
@@ -206,6 +230,48 @@
   <si>
     <t>GenericServlet &amp;
 HttpServlet</t>
+  </si>
+  <si>
+    <t xml:space="preserve">J2EE ASSIGNMENT </t>
+  </si>
+  <si>
+    <t>J2EE PRESENTATION</t>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">DATE
+</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>08/05/2020</t>
+    </r>
+  </si>
+  <si>
+    <t>employee manager
+ relationship queries</t>
+  </si>
+  <si>
+    <t>API</t>
+  </si>
+  <si>
+    <t>employee manager
+ relationship queries, API</t>
+  </si>
+  <si>
+    <t>Data - RDBMS</t>
+  </si>
+  <si>
+    <t>multithreading</t>
+  </si>
+  <si>
+    <t>Servlet Life Cycle</t>
   </si>
 </sst>
 </file>
@@ -310,18 +376,18 @@
     <xf numFmtId="14" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
     <xf numFmtId="14" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="14" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
-    <xf numFmtId="14" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    <xf numFmtId="14" fontId="1" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -619,8 +685,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <dimension ref="A1:H22"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="B1" workbookViewId="0">
-      <selection activeCell="G7" sqref="G7"/>
+    <sheetView tabSelected="1" zoomScale="80" zoomScaleNormal="80" workbookViewId="0">
+      <selection activeCell="D11" sqref="D11"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
@@ -631,21 +697,21 @@
     <col min="4" max="4" width="23.875" customWidth="1"/>
     <col min="5" max="5" width="19.25" customWidth="1"/>
     <col min="6" max="6" width="20.125" customWidth="1"/>
-    <col min="7" max="7" width="16" customWidth="1"/>
+    <col min="7" max="7" width="16.625" customWidth="1"/>
     <col min="8" max="8" width="19.125" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:8">
-      <c r="A1" s="11" t="s">
+      <c r="A1" s="12" t="s">
         <v>17</v>
       </c>
-      <c r="B1" s="11"/>
-      <c r="C1" s="11"/>
-      <c r="D1" s="11"/>
-      <c r="E1" s="11"/>
-      <c r="F1" s="11"/>
-      <c r="G1" s="11"/>
-      <c r="H1" s="11"/>
+      <c r="B1" s="12"/>
+      <c r="C1" s="12"/>
+      <c r="D1" s="12"/>
+      <c r="E1" s="12"/>
+      <c r="F1" s="12"/>
+      <c r="G1" s="12"/>
+      <c r="H1" s="12"/>
     </row>
     <row r="2" spans="1:8">
       <c r="A2" s="3" t="s">
@@ -752,7 +818,7 @@
       </c>
     </row>
     <row r="6" spans="1:8" ht="45">
-      <c r="A6" s="10">
+      <c r="A6" s="9">
         <v>43957</v>
       </c>
       <c r="B6" s="3" t="s">
@@ -773,12 +839,12 @@
       <c r="G6" s="3" t="s">
         <v>36</v>
       </c>
-      <c r="H6" s="9" t="s">
+      <c r="H6" s="3" t="s">
         <v>31</v>
       </c>
     </row>
     <row r="7" spans="1:8" ht="45">
-      <c r="A7" s="12">
+      <c r="A7" s="10">
         <v>43958</v>
       </c>
       <c r="B7" s="5" t="s">
@@ -787,7 +853,7 @@
       <c r="C7" s="7" t="s">
         <v>38</v>
       </c>
-      <c r="D7" s="13" t="s">
+      <c r="D7" s="11" t="s">
         <v>39</v>
       </c>
       <c r="E7" s="3" t="s">
@@ -804,7 +870,7 @@
       </c>
     </row>
     <row r="8" spans="1:8">
-      <c r="A8" s="1"/>
+      <c r="A8" s="10"/>
       <c r="B8" s="1"/>
       <c r="C8" s="1"/>
       <c r="D8" s="1"/>
@@ -814,34 +880,82 @@
       <c r="H8" s="1"/>
     </row>
     <row r="9" spans="1:8">
-      <c r="A9" s="1"/>
-      <c r="B9" s="1"/>
-      <c r="C9" s="1"/>
-      <c r="D9" s="1"/>
-      <c r="E9" s="1"/>
-      <c r="F9" s="1"/>
-      <c r="G9" s="1"/>
-      <c r="H9" s="1"/>
+      <c r="A9" s="3" t="s">
+        <v>13</v>
+      </c>
+      <c r="B9" s="4" t="s">
+        <v>8</v>
+      </c>
+      <c r="C9" s="4" t="s">
+        <v>1</v>
+      </c>
+      <c r="D9" s="4" t="s">
+        <v>3</v>
+      </c>
+      <c r="E9" s="4" t="s">
+        <v>6</v>
+      </c>
+      <c r="F9" s="4" t="s">
+        <v>7</v>
+      </c>
+      <c r="G9" s="4" t="s">
+        <v>10</v>
+      </c>
+      <c r="H9" s="4" t="s">
+        <v>12</v>
+      </c>
     </row>
     <row r="10" spans="1:8">
-      <c r="A10" s="1"/>
-      <c r="B10" s="1"/>
-      <c r="C10" s="1"/>
-      <c r="D10" s="1"/>
-      <c r="E10" s="1"/>
-      <c r="F10" s="1"/>
-      <c r="G10" s="1"/>
-      <c r="H10" s="1"/>
-    </row>
-    <row r="11" spans="1:8">
-      <c r="A11" s="1"/>
-      <c r="B11" s="1"/>
-      <c r="C11" s="1"/>
-      <c r="D11" s="1"/>
-      <c r="E11" s="1"/>
-      <c r="F11" s="1"/>
-      <c r="G11" s="1"/>
-      <c r="H11" s="1"/>
+      <c r="A10" s="4" t="s">
+        <v>14</v>
+      </c>
+      <c r="B10" s="4" t="s">
+        <v>0</v>
+      </c>
+      <c r="C10" s="4" t="s">
+        <v>2</v>
+      </c>
+      <c r="D10" s="4" t="s">
+        <v>4</v>
+      </c>
+      <c r="E10" s="4" t="s">
+        <v>11</v>
+      </c>
+      <c r="F10" s="4" t="s">
+        <v>44</v>
+      </c>
+      <c r="G10" s="4" t="s">
+        <v>45</v>
+      </c>
+      <c r="H10" s="4" t="s">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="11" spans="1:8" ht="30">
+      <c r="A11" s="13" t="s">
+        <v>46</v>
+      </c>
+      <c r="B11" s="5" t="s">
+        <v>47</v>
+      </c>
+      <c r="C11" s="3" t="s">
+        <v>48</v>
+      </c>
+      <c r="D11" s="5" t="s">
+        <v>49</v>
+      </c>
+      <c r="E11" s="3" t="s">
+        <v>50</v>
+      </c>
+      <c r="F11" s="3" t="s">
+        <v>51</v>
+      </c>
+      <c r="G11" s="3" t="s">
+        <v>48</v>
+      </c>
+      <c r="H11" s="3" t="s">
+        <v>52</v>
+      </c>
     </row>
     <row r="12" spans="1:8">
       <c r="A12" s="1"/>

--- a/Daily Update/Daily Updates.xlsx
+++ b/Daily Update/Daily Updates.xlsx
@@ -74,7 +74,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="70" uniqueCount="53">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="76" uniqueCount="58">
   <si>
     <t>SQL by Mr.varun</t>
   </si>
@@ -272,6 +272,21 @@
   </si>
   <si>
     <t>Servlet Life Cycle</t>
+  </si>
+  <si>
+    <t>software installation</t>
+  </si>
+  <si>
+    <t>RM- Rf Codd rules</t>
+  </si>
+  <si>
+    <t>solved Queries</t>
+  </si>
+  <si>
+    <t xml:space="preserve">multithreading &amp; garbage collection </t>
+  </si>
+  <si>
+    <t>web.xml</t>
   </si>
 </sst>
 </file>
@@ -316,7 +331,7 @@
       <patternFill patternType="gray125"/>
     </fill>
   </fills>
-  <borders count="3">
+  <borders count="5">
     <border>
       <left/>
       <right/>
@@ -348,11 +363,37 @@
       </bottom>
       <diagonal/>
     </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right/>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
   </borders>
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="14">
+  <cellXfs count="17">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1"/>
     <xf numFmtId="14" fontId="1" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
@@ -383,11 +424,20 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
+    <xf numFmtId="14" fontId="1" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
-    <xf numFmtId="14" fontId="1" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -686,7 +736,7 @@
   <dimension ref="A1:H22"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="80" zoomScaleNormal="80" workbookViewId="0">
-      <selection activeCell="D11" sqref="D11"/>
+      <selection activeCell="J15" sqref="J15"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
@@ -702,16 +752,16 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:8">
-      <c r="A1" s="12" t="s">
+      <c r="A1" s="13" t="s">
         <v>17</v>
       </c>
-      <c r="B1" s="12"/>
-      <c r="C1" s="12"/>
-      <c r="D1" s="12"/>
-      <c r="E1" s="12"/>
-      <c r="F1" s="12"/>
-      <c r="G1" s="12"/>
-      <c r="H1" s="12"/>
+      <c r="B1" s="13"/>
+      <c r="C1" s="13"/>
+      <c r="D1" s="13"/>
+      <c r="E1" s="13"/>
+      <c r="F1" s="13"/>
+      <c r="G1" s="13"/>
+      <c r="H1" s="13"/>
     </row>
     <row r="2" spans="1:8">
       <c r="A2" s="3" t="s">
@@ -879,7 +929,7 @@
       <c r="G8" s="1"/>
       <c r="H8" s="1"/>
     </row>
-    <row r="9" spans="1:8">
+    <row r="9" spans="1:8" ht="28.5" customHeight="1">
       <c r="A9" s="3" t="s">
         <v>13</v>
       </c>
@@ -905,7 +955,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="10" spans="1:8">
+    <row r="10" spans="1:8" ht="27" customHeight="1">
       <c r="A10" s="4" t="s">
         <v>14</v>
       </c>
@@ -932,7 +982,7 @@
       </c>
     </row>
     <row r="11" spans="1:8" ht="30">
-      <c r="A11" s="13" t="s">
+      <c r="A11" s="12" t="s">
         <v>46</v>
       </c>
       <c r="B11" s="5" t="s">
@@ -957,15 +1007,29 @@
         <v>52</v>
       </c>
     </row>
-    <row r="12" spans="1:8">
-      <c r="A12" s="1"/>
-      <c r="B12" s="1"/>
-      <c r="C12" s="1"/>
-      <c r="D12" s="1"/>
-      <c r="E12" s="1"/>
-      <c r="F12" s="1"/>
-      <c r="G12" s="1"/>
-      <c r="H12" s="1"/>
+    <row r="12" spans="1:8" ht="21" customHeight="1">
+      <c r="A12" s="9">
+        <v>43960</v>
+      </c>
+      <c r="B12" s="14" t="s">
+        <v>22</v>
+      </c>
+      <c r="C12" s="3" t="s">
+        <v>53</v>
+      </c>
+      <c r="D12" s="3" t="s">
+        <v>55</v>
+      </c>
+      <c r="E12" s="3" t="s">
+        <v>54</v>
+      </c>
+      <c r="F12" s="15" t="s">
+        <v>56</v>
+      </c>
+      <c r="G12" s="16"/>
+      <c r="H12" s="3" t="s">
+        <v>57</v>
+      </c>
     </row>
     <row r="13" spans="1:8">
       <c r="A13" s="1"/>
@@ -1068,8 +1132,9 @@
       <c r="H22" s="1"/>
     </row>
   </sheetData>
-  <mergeCells count="1">
+  <mergeCells count="2">
     <mergeCell ref="A1:H1"/>
+    <mergeCell ref="F12:G12"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>

--- a/Daily Update/Daily Updates.xlsx
+++ b/Daily Update/Daily Updates.xlsx
@@ -74,7 +74,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="76" uniqueCount="58">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="84" uniqueCount="65">
   <si>
     <t>SQL by Mr.varun</t>
   </si>
@@ -287,6 +287,29 @@
   </si>
   <si>
     <t>web.xml</t>
+  </si>
+  <si>
+    <t>11-05-202</t>
+  </si>
+  <si>
+    <t>joins(cross join)</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Steps to work  with JDBC API </t>
+  </si>
+  <si>
+    <t>joins(cross join)
+Steps to work  with JDBC AP</t>
+  </si>
+  <si>
+    <t>datatypes-constraints</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> Single threaded nature
+ of Servlet </t>
+  </si>
+  <si>
+    <t>collections programming</t>
   </si>
 </sst>
 </file>
@@ -323,12 +346,18 @@
       <family val="2"/>
     </font>
   </fonts>
-  <fills count="2">
+  <fills count="3">
     <fill>
       <patternFill patternType="none"/>
     </fill>
     <fill>
       <patternFill patternType="gray125"/>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFF00"/>
+        <bgColor indexed="64"/>
+      </patternFill>
     </fill>
   </fills>
   <borders count="5">
@@ -393,7 +422,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="17">
+  <cellXfs count="19">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1"/>
     <xf numFmtId="14" fontId="1" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
@@ -427,18 +456,20 @@
     <xf numFmtId="14" fontId="1" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
+    <xf numFmtId="14" fontId="0" fillId="2" borderId="1" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="1" xfId="0" applyFill="1" applyBorder="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -735,33 +766,33 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <dimension ref="A1:H22"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="80" zoomScaleNormal="80" workbookViewId="0">
-      <selection activeCell="J15" sqref="J15"/>
+    <sheetView tabSelected="1" topLeftCell="A8" zoomScale="80" zoomScaleNormal="80" workbookViewId="0">
+      <selection activeCell="G17" sqref="G17"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
   <cols>
     <col min="1" max="1" width="13.5" customWidth="1"/>
     <col min="2" max="2" width="22.625" customWidth="1"/>
-    <col min="3" max="3" width="23.5" customWidth="1"/>
+    <col min="3" max="3" width="24.25" customWidth="1"/>
     <col min="4" max="4" width="23.875" customWidth="1"/>
-    <col min="5" max="5" width="19.25" customWidth="1"/>
+    <col min="5" max="5" width="20.625" bestFit="1" customWidth="1"/>
     <col min="6" max="6" width="20.125" customWidth="1"/>
-    <col min="7" max="7" width="16.625" customWidth="1"/>
+    <col min="7" max="7" width="23.625" customWidth="1"/>
     <col min="8" max="8" width="19.125" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:8">
-      <c r="A1" s="13" t="s">
+      <c r="A1" s="14" t="s">
         <v>17</v>
       </c>
-      <c r="B1" s="13"/>
-      <c r="C1" s="13"/>
-      <c r="D1" s="13"/>
-      <c r="E1" s="13"/>
-      <c r="F1" s="13"/>
-      <c r="G1" s="13"/>
-      <c r="H1" s="13"/>
+      <c r="B1" s="14"/>
+      <c r="C1" s="14"/>
+      <c r="D1" s="14"/>
+      <c r="E1" s="14"/>
+      <c r="F1" s="14"/>
+      <c r="G1" s="14"/>
+      <c r="H1" s="14"/>
     </row>
     <row r="2" spans="1:8">
       <c r="A2" s="3" t="s">
@@ -920,14 +951,14 @@
       </c>
     </row>
     <row r="8" spans="1:8">
-      <c r="A8" s="10"/>
-      <c r="B8" s="1"/>
-      <c r="C8" s="1"/>
-      <c r="D8" s="1"/>
-      <c r="E8" s="1"/>
-      <c r="F8" s="1"/>
-      <c r="G8" s="1"/>
-      <c r="H8" s="1"/>
+      <c r="A8" s="17"/>
+      <c r="B8" s="18"/>
+      <c r="C8" s="18"/>
+      <c r="D8" s="18"/>
+      <c r="E8" s="18"/>
+      <c r="F8" s="18"/>
+      <c r="G8" s="18"/>
+      <c r="H8" s="18"/>
     </row>
     <row r="9" spans="1:8" ht="28.5" customHeight="1">
       <c r="A9" s="3" t="s">
@@ -1011,7 +1042,7 @@
       <c r="A12" s="9">
         <v>43960</v>
       </c>
-      <c r="B12" s="14" t="s">
+      <c r="B12" s="13" t="s">
         <v>22</v>
       </c>
       <c r="C12" s="3" t="s">
@@ -1031,15 +1062,31 @@
         <v>57</v>
       </c>
     </row>
-    <row r="13" spans="1:8">
-      <c r="A13" s="1"/>
-      <c r="B13" s="1"/>
-      <c r="C13" s="1"/>
-      <c r="D13" s="1"/>
-      <c r="E13" s="1"/>
-      <c r="F13" s="1"/>
-      <c r="G13" s="1"/>
-      <c r="H13" s="1"/>
+    <row r="13" spans="1:8" ht="30">
+      <c r="A13" s="3" t="s">
+        <v>58</v>
+      </c>
+      <c r="B13" s="3" t="s">
+        <v>59</v>
+      </c>
+      <c r="C13" s="3" t="s">
+        <v>60</v>
+      </c>
+      <c r="D13" s="5" t="s">
+        <v>61</v>
+      </c>
+      <c r="E13" s="3" t="s">
+        <v>62</v>
+      </c>
+      <c r="F13" s="3" t="s">
+        <v>64</v>
+      </c>
+      <c r="G13" s="3" t="s">
+        <v>60</v>
+      </c>
+      <c r="H13" s="5" t="s">
+        <v>63</v>
+      </c>
     </row>
     <row r="14" spans="1:8">
       <c r="A14" s="1"/>

--- a/Daily Update/Daily Updates.xlsx
+++ b/Daily Update/Daily Updates.xlsx
@@ -74,7 +74,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="84" uniqueCount="65">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="90" uniqueCount="70">
   <si>
     <t>SQL by Mr.varun</t>
   </si>
@@ -289,9 +289,6 @@
     <t>web.xml</t>
   </si>
   <si>
-    <t>11-05-202</t>
-  </si>
-  <si>
     <t>joins(cross join)</t>
   </si>
   <si>
@@ -310,6 +307,24 @@
   </si>
   <si>
     <t>collections programming</t>
+  </si>
+  <si>
+    <t>inner join</t>
+  </si>
+  <si>
+    <t>jar file</t>
+  </si>
+  <si>
+    <t>jar file, inner join</t>
+  </si>
+  <si>
+    <t>solved queries</t>
+  </si>
+  <si>
+    <t>Map</t>
+  </si>
+  <si>
+    <t>cookies</t>
   </si>
 </sst>
 </file>
@@ -459,6 +474,8 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
+    <xf numFmtId="14" fontId="0" fillId="2" borderId="1" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="1" xfId="0" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
@@ -468,8 +485,6 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="14" fontId="0" fillId="2" borderId="1" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="1" xfId="0" applyFill="1" applyBorder="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -766,8 +781,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <dimension ref="A1:H22"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A8" zoomScale="80" zoomScaleNormal="80" workbookViewId="0">
-      <selection activeCell="G17" sqref="G17"/>
+    <sheetView tabSelected="1" topLeftCell="A6" workbookViewId="0">
+      <selection activeCell="A14" sqref="A14"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
@@ -783,16 +798,16 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:8">
-      <c r="A1" s="14" t="s">
+      <c r="A1" s="16" t="s">
         <v>17</v>
       </c>
-      <c r="B1" s="14"/>
-      <c r="C1" s="14"/>
-      <c r="D1" s="14"/>
-      <c r="E1" s="14"/>
-      <c r="F1" s="14"/>
-      <c r="G1" s="14"/>
-      <c r="H1" s="14"/>
+      <c r="B1" s="16"/>
+      <c r="C1" s="16"/>
+      <c r="D1" s="16"/>
+      <c r="E1" s="16"/>
+      <c r="F1" s="16"/>
+      <c r="G1" s="16"/>
+      <c r="H1" s="16"/>
     </row>
     <row r="2" spans="1:8">
       <c r="A2" s="3" t="s">
@@ -951,14 +966,14 @@
       </c>
     </row>
     <row r="8" spans="1:8">
-      <c r="A8" s="17"/>
-      <c r="B8" s="18"/>
-      <c r="C8" s="18"/>
-      <c r="D8" s="18"/>
-      <c r="E8" s="18"/>
-      <c r="F8" s="18"/>
-      <c r="G8" s="18"/>
-      <c r="H8" s="18"/>
+      <c r="A8" s="14"/>
+      <c r="B8" s="15"/>
+      <c r="C8" s="15"/>
+      <c r="D8" s="15"/>
+      <c r="E8" s="15"/>
+      <c r="F8" s="15"/>
+      <c r="G8" s="15"/>
+      <c r="H8" s="15"/>
     </row>
     <row r="9" spans="1:8" ht="28.5" customHeight="1">
       <c r="A9" s="3" t="s">
@@ -1054,49 +1069,65 @@
       <c r="E12" s="3" t="s">
         <v>54</v>
       </c>
-      <c r="F12" s="15" t="s">
+      <c r="F12" s="17" t="s">
         <v>56</v>
       </c>
-      <c r="G12" s="16"/>
+      <c r="G12" s="18"/>
       <c r="H12" s="3" t="s">
         <v>57</v>
       </c>
     </row>
     <row r="13" spans="1:8" ht="30">
-      <c r="A13" s="3" t="s">
+      <c r="A13" s="9">
+        <v>43962</v>
+      </c>
+      <c r="B13" s="3" t="s">
         <v>58</v>
       </c>
-      <c r="B13" s="3" t="s">
+      <c r="C13" s="3" t="s">
         <v>59</v>
       </c>
-      <c r="C13" s="3" t="s">
+      <c r="D13" s="5" t="s">
         <v>60</v>
       </c>
-      <c r="D13" s="5" t="s">
+      <c r="E13" s="3" t="s">
         <v>61</v>
       </c>
-      <c r="E13" s="3" t="s">
+      <c r="F13" s="3" t="s">
+        <v>63</v>
+      </c>
+      <c r="G13" s="3" t="s">
+        <v>59</v>
+      </c>
+      <c r="H13" s="5" t="s">
         <v>62</v>
       </c>
-      <c r="F13" s="3" t="s">
+    </row>
+    <row r="14" spans="1:8">
+      <c r="A14" s="9">
+        <v>43963</v>
+      </c>
+      <c r="B14" s="3" t="s">
         <v>64</v>
       </c>
-      <c r="G13" s="3" t="s">
-        <v>60</v>
-      </c>
-      <c r="H13" s="5" t="s">
-        <v>63</v>
-      </c>
-    </row>
-    <row r="14" spans="1:8">
-      <c r="A14" s="1"/>
-      <c r="B14" s="1"/>
-      <c r="C14" s="1"/>
-      <c r="D14" s="1"/>
-      <c r="E14" s="1"/>
-      <c r="F14" s="1"/>
-      <c r="G14" s="1"/>
-      <c r="H14" s="1"/>
+      <c r="C14" s="3" t="s">
+        <v>65</v>
+      </c>
+      <c r="D14" s="3" t="s">
+        <v>66</v>
+      </c>
+      <c r="E14" s="13" t="s">
+        <v>67</v>
+      </c>
+      <c r="F14" s="3" t="s">
+        <v>68</v>
+      </c>
+      <c r="G14" s="3" t="s">
+        <v>65</v>
+      </c>
+      <c r="H14" s="3" t="s">
+        <v>69</v>
+      </c>
     </row>
     <row r="15" spans="1:8">
       <c r="A15" s="1"/>

--- a/Daily Update/Daily Updates.xlsx
+++ b/Daily Update/Daily Updates.xlsx
@@ -1,10 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <fileVersion appName="xl" lastEdited="4" lowestEdited="4" rupBuild="4505"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="4" rupBuild="21425"/>
   <workbookPr defaultThemeVersion="124226"/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice Requires="x15">
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\git\new1\Daily Update\"/>
+    </mc:Choice>
+  </mc:AlternateContent>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{3F538471-3698-4F9F-83A2-F4565A1AAEEA}" xr6:coauthVersionLast="43" xr6:coauthVersionMax="43" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="480" yWindow="45" windowWidth="18180" windowHeight="8460"/>
+    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -16,12 +22,12 @@
 </file>
 
 <file path=xl/comments1.xml><?xml version="1.0" encoding="utf-8"?>
-<comments xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+<comments xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="xr">
   <authors>
     <author>Windows User</author>
   </authors>
   <commentList>
-    <comment ref="A3" authorId="0">
+    <comment ref="A3" authorId="0" shapeId="0" xr:uid="{00000000-0006-0000-0000-000001000000}">
       <text>
         <r>
           <rPr>
@@ -45,7 +51,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="A10" authorId="0">
+    <comment ref="A10" authorId="0" shapeId="0" xr:uid="{00000000-0006-0000-0000-000002000000}">
       <text>
         <r>
           <rPr>
@@ -74,7 +80,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="90" uniqueCount="70">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="96" uniqueCount="76">
   <si>
     <t>SQL by Mr.varun</t>
   </si>
@@ -326,12 +332,30 @@
   <si>
     <t>cookies</t>
   </si>
+  <si>
+    <t>Driver class</t>
+  </si>
+  <si>
+    <t>SQl notes</t>
+  </si>
+  <si>
+    <t>Started java stand  alone application project</t>
+  </si>
+  <si>
+    <t>cookies continued</t>
+  </si>
+  <si>
+    <t>solved inner join  queries</t>
+  </si>
+  <si>
+    <t>Solved Queries,Driver Class</t>
+  </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <fonts count="4">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
+  <fonts count="4" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -437,7 +461,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="19">
+  <cellXfs count="21">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1"/>
     <xf numFmtId="14" fontId="1" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
@@ -484,6 +508,12 @@
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -491,6 +521,14 @@
   </cellStyles>
   <dxfs count="0"/>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium9" defaultPivotStyle="PivotStyleLight16"/>
+  <extLst>
+    <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
+      <x14:slicerStyles defaultSlicerStyle="SlicerStyleLight1"/>
+    </ext>
+    <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{9260A510-F301-46a8-8635-F512D64BE5F5}">
+      <x15:timelineStyles defaultTimelineStyle="TimeSlicerStyleLight1"/>
+    </ext>
+  </extLst>
 </styleSheet>
 </file>
 
@@ -537,7 +575,7 @@
     </a:clrScheme>
     <a:fontScheme name="Office">
       <a:majorFont>
-        <a:latin typeface="Cambria"/>
+        <a:latin typeface="Cambria" panose="020F0302020204030204"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
         <a:font script="Jpan" typeface="ＭＳ Ｐゴシック"/>
@@ -569,9 +607,27 @@
         <a:font script="Mong" typeface="Mongolian Baiti"/>
         <a:font script="Viet" typeface="Times New Roman"/>
         <a:font script="Uigh" typeface="Microsoft Uighur"/>
+        <a:font script="Geor" typeface="Sylfaen"/>
+        <a:font script="Armn" typeface="Arial"/>
+        <a:font script="Bugi" typeface="Leelawadee UI"/>
+        <a:font script="Bopo" typeface="Microsoft JhengHei"/>
+        <a:font script="Java" typeface="Javanese Text"/>
+        <a:font script="Lisu" typeface="Segoe UI"/>
+        <a:font script="Mymr" typeface="Myanmar Text"/>
+        <a:font script="Nkoo" typeface="Ebrima"/>
+        <a:font script="Olck" typeface="Nirmala UI"/>
+        <a:font script="Osma" typeface="Ebrima"/>
+        <a:font script="Phag" typeface="Phagspa"/>
+        <a:font script="Syrn" typeface="Estrangelo Edessa"/>
+        <a:font script="Syrj" typeface="Estrangelo Edessa"/>
+        <a:font script="Syre" typeface="Estrangelo Edessa"/>
+        <a:font script="Sora" typeface="Nirmala UI"/>
+        <a:font script="Tale" typeface="Microsoft Tai Le"/>
+        <a:font script="Talu" typeface="Microsoft New Tai Lue"/>
+        <a:font script="Tfng" typeface="Ebrima"/>
       </a:majorFont>
       <a:minorFont>
-        <a:latin typeface="Calibri"/>
+        <a:latin typeface="Calibri" panose="020F0502020204030204"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
         <a:font script="Jpan" typeface="ＭＳ Ｐゴシック"/>
@@ -603,6 +659,24 @@
         <a:font script="Mong" typeface="Mongolian Baiti"/>
         <a:font script="Viet" typeface="Arial"/>
         <a:font script="Uigh" typeface="Microsoft Uighur"/>
+        <a:font script="Geor" typeface="Sylfaen"/>
+        <a:font script="Armn" typeface="Arial"/>
+        <a:font script="Bugi" typeface="Leelawadee UI"/>
+        <a:font script="Bopo" typeface="Microsoft JhengHei"/>
+        <a:font script="Java" typeface="Javanese Text"/>
+        <a:font script="Lisu" typeface="Segoe UI"/>
+        <a:font script="Mymr" typeface="Myanmar Text"/>
+        <a:font script="Nkoo" typeface="Ebrima"/>
+        <a:font script="Olck" typeface="Nirmala UI"/>
+        <a:font script="Osma" typeface="Ebrima"/>
+        <a:font script="Phag" typeface="Phagspa"/>
+        <a:font script="Syrn" typeface="Estrangelo Edessa"/>
+        <a:font script="Syrj" typeface="Estrangelo Edessa"/>
+        <a:font script="Syre" typeface="Estrangelo Edessa"/>
+        <a:font script="Sora" typeface="Nirmala UI"/>
+        <a:font script="Tale" typeface="Microsoft Tai Le"/>
+        <a:font script="Talu" typeface="Microsoft New Tai Lue"/>
+        <a:font script="Tfng" typeface="Ebrima"/>
       </a:minorFont>
     </a:fontScheme>
     <a:fmtScheme name="Office">
@@ -778,26 +852,26 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:H22"/>
   <sheetViews>
     <sheetView tabSelected="1" topLeftCell="A6" workbookViewId="0">
-      <selection activeCell="A14" sqref="A14"/>
+      <selection activeCell="E17" sqref="E17"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15"/>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="1" max="1" width="13.5" customWidth="1"/>
-    <col min="2" max="2" width="22.625" customWidth="1"/>
-    <col min="3" max="3" width="24.25" customWidth="1"/>
-    <col min="4" max="4" width="23.875" customWidth="1"/>
-    <col min="5" max="5" width="20.625" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="20.125" customWidth="1"/>
-    <col min="7" max="7" width="23.625" customWidth="1"/>
-    <col min="8" max="8" width="19.125" customWidth="1"/>
+    <col min="1" max="1" width="13.44140625" customWidth="1"/>
+    <col min="2" max="2" width="22.6640625" customWidth="1"/>
+    <col min="3" max="3" width="24.21875" customWidth="1"/>
+    <col min="4" max="4" width="23.88671875" customWidth="1"/>
+    <col min="5" max="5" width="20.6640625" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="20.109375" customWidth="1"/>
+    <col min="7" max="7" width="23.6640625" customWidth="1"/>
+    <col min="8" max="8" width="19.109375" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:8">
+    <row r="1" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A1" s="16" t="s">
         <v>17</v>
       </c>
@@ -809,7 +883,7 @@
       <c r="G1" s="16"/>
       <c r="H1" s="16"/>
     </row>
-    <row r="2" spans="1:8">
+    <row r="2" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A2" s="3" t="s">
         <v>13</v>
       </c>
@@ -835,7 +909,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="3" spans="1:8" ht="21.75" customHeight="1">
+    <row r="3" spans="1:8" ht="21.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A3" s="4" t="s">
         <v>14</v>
       </c>
@@ -861,7 +935,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="4" spans="1:8" ht="30">
+    <row r="4" spans="1:8" ht="28.8" x14ac:dyDescent="0.3">
       <c r="A4" s="2" t="s">
         <v>19</v>
       </c>
@@ -887,7 +961,7 @@
         <v>23</v>
       </c>
     </row>
-    <row r="5" spans="1:8" ht="45">
+    <row r="5" spans="1:8" ht="43.2" x14ac:dyDescent="0.3">
       <c r="A5" s="8">
         <v>43956</v>
       </c>
@@ -913,7 +987,7 @@
         <v>29</v>
       </c>
     </row>
-    <row r="6" spans="1:8" ht="45">
+    <row r="6" spans="1:8" ht="43.2" x14ac:dyDescent="0.3">
       <c r="A6" s="9">
         <v>43957</v>
       </c>
@@ -939,7 +1013,7 @@
         <v>31</v>
       </c>
     </row>
-    <row r="7" spans="1:8" ht="45">
+    <row r="7" spans="1:8" ht="57.6" x14ac:dyDescent="0.3">
       <c r="A7" s="10">
         <v>43958</v>
       </c>
@@ -965,7 +1039,7 @@
         <v>43</v>
       </c>
     </row>
-    <row r="8" spans="1:8">
+    <row r="8" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A8" s="14"/>
       <c r="B8" s="15"/>
       <c r="C8" s="15"/>
@@ -975,7 +1049,7 @@
       <c r="G8" s="15"/>
       <c r="H8" s="15"/>
     </row>
-    <row r="9" spans="1:8" ht="28.5" customHeight="1">
+    <row r="9" spans="1:8" ht="28.5" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A9" s="3" t="s">
         <v>13</v>
       </c>
@@ -1001,7 +1075,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="10" spans="1:8" ht="27" customHeight="1">
+    <row r="10" spans="1:8" ht="27" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A10" s="4" t="s">
         <v>14</v>
       </c>
@@ -1027,7 +1101,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="11" spans="1:8" ht="30">
+    <row r="11" spans="1:8" ht="28.8" x14ac:dyDescent="0.3">
       <c r="A11" s="12" t="s">
         <v>46</v>
       </c>
@@ -1053,7 +1127,7 @@
         <v>52</v>
       </c>
     </row>
-    <row r="12" spans="1:8" ht="21" customHeight="1">
+    <row r="12" spans="1:8" ht="21" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A12" s="9">
         <v>43960</v>
       </c>
@@ -1077,7 +1151,7 @@
         <v>57</v>
       </c>
     </row>
-    <row r="13" spans="1:8" ht="30">
+    <row r="13" spans="1:8" ht="43.2" x14ac:dyDescent="0.3">
       <c r="A13" s="9">
         <v>43962</v>
       </c>
@@ -1103,7 +1177,7 @@
         <v>62</v>
       </c>
     </row>
-    <row r="14" spans="1:8">
+    <row r="14" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A14" s="9">
         <v>43963</v>
       </c>
@@ -1129,17 +1203,31 @@
         <v>69</v>
       </c>
     </row>
-    <row r="15" spans="1:8">
-      <c r="A15" s="1"/>
-      <c r="B15" s="1"/>
-      <c r="C15" s="1"/>
-      <c r="D15" s="1"/>
-      <c r="E15" s="1"/>
-      <c r="F15" s="1"/>
-      <c r="G15" s="1"/>
-      <c r="H15" s="1"/>
-    </row>
-    <row r="16" spans="1:8">
+    <row r="15" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A15" s="10">
+        <v>43964</v>
+      </c>
+      <c r="B15" s="3" t="s">
+        <v>74</v>
+      </c>
+      <c r="C15" s="3" t="s">
+        <v>70</v>
+      </c>
+      <c r="D15" s="13" t="s">
+        <v>75</v>
+      </c>
+      <c r="E15" s="3" t="s">
+        <v>71</v>
+      </c>
+      <c r="F15" s="19" t="s">
+        <v>72</v>
+      </c>
+      <c r="G15" s="20"/>
+      <c r="H15" s="1" t="s">
+        <v>73</v>
+      </c>
+    </row>
+    <row r="16" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A16" s="1"/>
       <c r="B16" s="1"/>
       <c r="C16" s="1"/>
@@ -1149,7 +1237,7 @@
       <c r="G16" s="1"/>
       <c r="H16" s="1"/>
     </row>
-    <row r="17" spans="1:8">
+    <row r="17" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A17" s="1"/>
       <c r="B17" s="1"/>
       <c r="C17" s="1"/>
@@ -1159,7 +1247,7 @@
       <c r="G17" s="1"/>
       <c r="H17" s="1"/>
     </row>
-    <row r="18" spans="1:8">
+    <row r="18" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A18" s="1"/>
       <c r="B18" s="1"/>
       <c r="C18" s="1"/>
@@ -1169,7 +1257,7 @@
       <c r="G18" s="1"/>
       <c r="H18" s="1"/>
     </row>
-    <row r="19" spans="1:8">
+    <row r="19" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A19" s="1"/>
       <c r="B19" s="1"/>
       <c r="C19" s="1"/>
@@ -1179,7 +1267,7 @@
       <c r="G19" s="1"/>
       <c r="H19" s="1"/>
     </row>
-    <row r="20" spans="1:8">
+    <row r="20" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A20" s="1"/>
       <c r="B20" s="1"/>
       <c r="C20" s="1"/>
@@ -1189,7 +1277,7 @@
       <c r="G20" s="1"/>
       <c r="H20" s="1"/>
     </row>
-    <row r="21" spans="1:8">
+    <row r="21" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A21" s="1"/>
       <c r="B21" s="1"/>
       <c r="C21" s="1"/>
@@ -1199,7 +1287,7 @@
       <c r="G21" s="1"/>
       <c r="H21" s="1"/>
     </row>
-    <row r="22" spans="1:8">
+    <row r="22" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A22" s="1"/>
       <c r="B22" s="1"/>
       <c r="C22" s="1"/>
@@ -1210,9 +1298,10 @@
       <c r="H22" s="1"/>
     </row>
   </sheetData>
-  <mergeCells count="2">
+  <mergeCells count="3">
     <mergeCell ref="A1:H1"/>
     <mergeCell ref="F12:G12"/>
+    <mergeCell ref="F15:G15"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
@@ -1221,24 +1310,24 @@
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
   <dimension ref="A1"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15"/>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <sheetData/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0200-000000000000}">
   <dimension ref="A1"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15"/>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <sheetData/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>

--- a/Daily Update/Daily Updates.xlsx
+++ b/Daily Update/Daily Updates.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\git\new1\Daily Update\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{3F538471-3698-4F9F-83A2-F4565A1AAEEA}" xr6:coauthVersionLast="43" xr6:coauthVersionMax="43" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{BEA77FEB-0162-42F4-A200-FCB5CC29CC46}" xr6:coauthVersionLast="43" xr6:coauthVersionMax="43" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -17,7 +17,7 @@
     <sheet name="Sheet2" sheetId="2" r:id="rId2"/>
     <sheet name="Sheet3" sheetId="3" r:id="rId3"/>
   </sheets>
-  <calcPr calcId="124519"/>
+  <calcPr calcId="191029"/>
 </workbook>
 </file>
 
@@ -80,7 +80,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="96" uniqueCount="76">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="228" uniqueCount="87">
   <si>
     <t>SQL by Mr.varun</t>
   </si>
@@ -350,12 +350,48 @@
   <si>
     <t>Solved Queries,Driver Class</t>
   </si>
+  <si>
+    <t>self join</t>
+  </si>
+  <si>
+    <t>Structure of DB-URL</t>
+  </si>
+  <si>
+    <t>Structure of DB-URL 
+&amp;outer join</t>
+  </si>
+  <si>
+    <t>DriverManager</t>
+  </si>
+  <si>
+    <t>DriverManager 
+self join</t>
+  </si>
+  <si>
+    <t>where,from</t>
+  </si>
+  <si>
+    <t>project continued</t>
+  </si>
+  <si>
+    <t>Request Transfer from 
+browser to web Application</t>
+  </si>
+  <si>
+    <t>16-05-2-2020</t>
+  </si>
+  <si>
+    <t>getConnection &amp; mySql table</t>
+  </si>
+  <si>
+    <t>project completed</t>
+  </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="4" x14ac:knownFonts="1">
+  <fonts count="5" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -384,6 +420,13 @@
       <name val="Tahoma"/>
       <family val="2"/>
     </font>
+    <font>
+      <sz val="8"/>
+      <color theme="1"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
   </fonts>
   <fills count="3">
     <fill>
@@ -399,7 +442,7 @@
       </patternFill>
     </fill>
   </fills>
-  <borders count="5">
+  <borders count="6">
     <border>
       <left/>
       <right/>
@@ -457,11 +500,22 @@
       </bottom>
       <diagonal/>
     </border>
+    <border>
+      <left/>
+      <right/>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
   </borders>
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="21">
+  <cellXfs count="20">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1"/>
     <xf numFmtId="14" fontId="1" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
@@ -477,9 +531,6 @@
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="14" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
@@ -489,14 +540,8 @@
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="14" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
     <xf numFmtId="14" fontId="1" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="14" fontId="0" fillId="2" borderId="1" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="1" xfId="0" applyFill="1" applyBorder="1"/>
@@ -509,11 +554,17 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="5" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top" wrapText="1"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -855,33 +906,32 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:H22"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A6" workbookViewId="0">
-      <selection activeCell="E17" sqref="E17"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="A14" sqref="A14"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
     <col min="1" max="1" width="13.44140625" customWidth="1"/>
     <col min="2" max="2" width="22.6640625" customWidth="1"/>
-    <col min="3" max="3" width="24.21875" customWidth="1"/>
-    <col min="4" max="4" width="23.88671875" customWidth="1"/>
-    <col min="5" max="5" width="20.6640625" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="20.109375" customWidth="1"/>
-    <col min="7" max="7" width="23.6640625" customWidth="1"/>
-    <col min="8" max="8" width="19.109375" customWidth="1"/>
+    <col min="3" max="4" width="25.33203125" customWidth="1"/>
+    <col min="5" max="5" width="24.77734375" customWidth="1"/>
+    <col min="6" max="6" width="23.6640625" customWidth="1"/>
+    <col min="7" max="7" width="27.5546875" customWidth="1"/>
+    <col min="8" max="8" width="23.21875" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="A1" s="16" t="s">
+      <c r="A1" s="13" t="s">
         <v>17</v>
       </c>
-      <c r="B1" s="16"/>
-      <c r="C1" s="16"/>
-      <c r="D1" s="16"/>
-      <c r="E1" s="16"/>
-      <c r="F1" s="16"/>
-      <c r="G1" s="16"/>
-      <c r="H1" s="16"/>
+      <c r="B1" s="13"/>
+      <c r="C1" s="13"/>
+      <c r="D1" s="13"/>
+      <c r="E1" s="13"/>
+      <c r="F1" s="13"/>
+      <c r="G1" s="13"/>
+      <c r="H1" s="13"/>
     </row>
     <row r="2" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A2" s="3" t="s">
@@ -957,12 +1007,12 @@
       <c r="G4" s="3" t="s">
         <v>22</v>
       </c>
-      <c r="H4" s="7" t="s">
+      <c r="H4" s="6" t="s">
         <v>23</v>
       </c>
     </row>
-    <row r="5" spans="1:8" ht="43.2" x14ac:dyDescent="0.3">
-      <c r="A5" s="8">
+    <row r="5" spans="1:8" ht="30.6" x14ac:dyDescent="0.3">
+      <c r="A5" s="7">
         <v>43956</v>
       </c>
       <c r="B5" s="5" t="s">
@@ -974,7 +1024,7 @@
       <c r="D5" s="5" t="s">
         <v>25</v>
       </c>
-      <c r="E5" s="6" t="s">
+      <c r="E5" s="19" t="s">
         <v>26</v>
       </c>
       <c r="F5" s="3" t="s">
@@ -987,17 +1037,17 @@
         <v>29</v>
       </c>
     </row>
-    <row r="6" spans="1:8" ht="43.2" x14ac:dyDescent="0.3">
-      <c r="A6" s="9">
+    <row r="6" spans="1:8" ht="30.6" x14ac:dyDescent="0.3">
+      <c r="A6" s="8">
         <v>43957</v>
       </c>
       <c r="B6" s="3" t="s">
         <v>30</v>
       </c>
-      <c r="C6" s="7" t="s">
+      <c r="C6" s="6" t="s">
         <v>32</v>
       </c>
-      <c r="D6" s="5" t="s">
+      <c r="D6" s="17" t="s">
         <v>33</v>
       </c>
       <c r="E6" s="3" t="s">
@@ -1013,17 +1063,17 @@
         <v>31</v>
       </c>
     </row>
-    <row r="7" spans="1:8" ht="57.6" x14ac:dyDescent="0.3">
-      <c r="A7" s="10">
+    <row r="7" spans="1:8" ht="30.6" x14ac:dyDescent="0.3">
+      <c r="A7" s="9">
         <v>43958</v>
       </c>
       <c r="B7" s="5" t="s">
         <v>37</v>
       </c>
-      <c r="C7" s="7" t="s">
+      <c r="C7" s="6" t="s">
         <v>38</v>
       </c>
-      <c r="D7" s="11" t="s">
+      <c r="D7" s="18" t="s">
         <v>39</v>
       </c>
       <c r="E7" s="3" t="s">
@@ -1040,14 +1090,14 @@
       </c>
     </row>
     <row r="8" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="A8" s="14"/>
-      <c r="B8" s="15"/>
-      <c r="C8" s="15"/>
-      <c r="D8" s="15"/>
-      <c r="E8" s="15"/>
-      <c r="F8" s="15"/>
-      <c r="G8" s="15"/>
-      <c r="H8" s="15"/>
+      <c r="A8" s="11"/>
+      <c r="B8" s="12"/>
+      <c r="C8" s="12"/>
+      <c r="D8" s="12"/>
+      <c r="E8" s="12"/>
+      <c r="F8" s="12"/>
+      <c r="G8" s="12"/>
+      <c r="H8" s="12"/>
     </row>
     <row r="9" spans="1:8" ht="28.5" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A9" s="3" t="s">
@@ -1102,7 +1152,7 @@
       </c>
     </row>
     <row r="11" spans="1:8" ht="28.8" x14ac:dyDescent="0.3">
-      <c r="A11" s="12" t="s">
+      <c r="A11" s="10" t="s">
         <v>46</v>
       </c>
       <c r="B11" s="5" t="s">
@@ -1128,10 +1178,10 @@
       </c>
     </row>
     <row r="12" spans="1:8" ht="21" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A12" s="9">
+      <c r="A12" s="8">
         <v>43960</v>
       </c>
-      <c r="B12" s="13" t="s">
+      <c r="B12" s="3" t="s">
         <v>22</v>
       </c>
       <c r="C12" s="3" t="s">
@@ -1143,16 +1193,16 @@
       <c r="E12" s="3" t="s">
         <v>54</v>
       </c>
-      <c r="F12" s="17" t="s">
+      <c r="F12" s="14" t="s">
         <v>56</v>
       </c>
-      <c r="G12" s="18"/>
+      <c r="G12" s="15"/>
       <c r="H12" s="3" t="s">
         <v>57</v>
       </c>
     </row>
-    <row r="13" spans="1:8" ht="43.2" x14ac:dyDescent="0.3">
-      <c r="A13" s="9">
+    <row r="13" spans="1:8" ht="20.399999999999999" x14ac:dyDescent="0.3">
+      <c r="A13" s="8">
         <v>43962</v>
       </c>
       <c r="B13" s="3" t="s">
@@ -1161,7 +1211,7 @@
       <c r="C13" s="3" t="s">
         <v>59</v>
       </c>
-      <c r="D13" s="5" t="s">
+      <c r="D13" s="17" t="s">
         <v>60</v>
       </c>
       <c r="E13" s="3" t="s">
@@ -1173,12 +1223,12 @@
       <c r="G13" s="3" t="s">
         <v>59</v>
       </c>
-      <c r="H13" s="5" t="s">
+      <c r="H13" s="17" t="s">
         <v>62</v>
       </c>
     </row>
-    <row r="14" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="A14" s="9">
+    <row r="14" spans="1:8" ht="18" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A14" s="8">
         <v>43963</v>
       </c>
       <c r="B14" s="3" t="s">
@@ -1190,7 +1240,7 @@
       <c r="D14" s="3" t="s">
         <v>66</v>
       </c>
-      <c r="E14" s="13" t="s">
+      <c r="E14" s="3" t="s">
         <v>67</v>
       </c>
       <c r="F14" s="3" t="s">
@@ -1204,7 +1254,7 @@
       </c>
     </row>
     <row r="15" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="A15" s="10">
+      <c r="A15" s="8">
         <v>43964</v>
       </c>
       <c r="B15" s="3" t="s">
@@ -1213,49 +1263,89 @@
       <c r="C15" s="3" t="s">
         <v>70</v>
       </c>
-      <c r="D15" s="13" t="s">
+      <c r="D15" s="3" t="s">
         <v>75</v>
       </c>
       <c r="E15" s="3" t="s">
         <v>71</v>
       </c>
-      <c r="F15" s="19" t="s">
+      <c r="F15" s="14" t="s">
         <v>72</v>
       </c>
-      <c r="G15" s="20"/>
-      <c r="H15" s="1" t="s">
+      <c r="G15" s="15"/>
+      <c r="H15" s="3" t="s">
         <v>73</v>
       </c>
     </row>
-    <row r="16" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="A16" s="1"/>
-      <c r="B16" s="1"/>
-      <c r="C16" s="1"/>
-      <c r="D16" s="1"/>
-      <c r="E16" s="1"/>
-      <c r="F16" s="1"/>
-      <c r="G16" s="1"/>
-      <c r="H16" s="1"/>
-    </row>
-    <row r="17" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="A17" s="1"/>
-      <c r="B17" s="1"/>
-      <c r="C17" s="1"/>
-      <c r="D17" s="1"/>
-      <c r="E17" s="1"/>
-      <c r="F17" s="1"/>
-      <c r="G17" s="1"/>
-      <c r="H17" s="1"/>
-    </row>
-    <row r="18" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="A18" s="1"/>
-      <c r="B18" s="1"/>
-      <c r="C18" s="1"/>
-      <c r="D18" s="1"/>
-      <c r="E18" s="1"/>
-      <c r="F18" s="1"/>
-      <c r="G18" s="1"/>
-      <c r="H18" s="1"/>
+    <row r="16" spans="1:8" ht="20.399999999999999" x14ac:dyDescent="0.3">
+      <c r="A16" s="8">
+        <v>43965</v>
+      </c>
+      <c r="B16" s="3" t="s">
+        <v>41</v>
+      </c>
+      <c r="C16" s="3" t="s">
+        <v>77</v>
+      </c>
+      <c r="D16" s="17" t="s">
+        <v>78</v>
+      </c>
+      <c r="E16" s="3" t="s">
+        <v>81</v>
+      </c>
+      <c r="F16" s="14" t="s">
+        <v>82</v>
+      </c>
+      <c r="G16" s="15"/>
+      <c r="H16" s="3" t="s">
+        <v>73</v>
+      </c>
+    </row>
+    <row r="17" spans="1:8" ht="28.8" x14ac:dyDescent="0.3">
+      <c r="A17" s="8">
+        <v>43966</v>
+      </c>
+      <c r="B17" s="3" t="s">
+        <v>76</v>
+      </c>
+      <c r="C17" s="3" t="s">
+        <v>79</v>
+      </c>
+      <c r="D17" s="5" t="s">
+        <v>80</v>
+      </c>
+      <c r="E17" s="3" t="s">
+        <v>67</v>
+      </c>
+      <c r="F17" s="14" t="s">
+        <v>82</v>
+      </c>
+      <c r="G17" s="15"/>
+      <c r="H17" s="17" t="s">
+        <v>83</v>
+      </c>
+    </row>
+    <row r="18" spans="1:8" ht="20.399999999999999" x14ac:dyDescent="0.3">
+      <c r="A18" s="3" t="s">
+        <v>84</v>
+      </c>
+      <c r="B18" s="3" t="s">
+        <v>22</v>
+      </c>
+      <c r="C18" s="3" t="s">
+        <v>85</v>
+      </c>
+      <c r="D18" s="3" t="s">
+        <v>85</v>
+      </c>
+      <c r="E18" s="14" t="s">
+        <v>86</v>
+      </c>
+      <c r="F18" s="16"/>
+      <c r="G18" s="15"/>
+      <c r="H18" s="17" t="s">
+        <v>83</v>
+      </c>
     </row>
     <row r="19" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A19" s="1"/>
@@ -1298,10 +1388,13 @@
       <c r="H22" s="1"/>
     </row>
   </sheetData>
-  <mergeCells count="3">
+  <mergeCells count="6">
+    <mergeCell ref="E18:G18"/>
     <mergeCell ref="A1:H1"/>
     <mergeCell ref="F12:G12"/>
     <mergeCell ref="F15:G15"/>
+    <mergeCell ref="F16:G16"/>
+    <mergeCell ref="F17:G17"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>

--- a/Daily Update/Daily Updates.xlsx
+++ b/Daily Update/Daily Updates.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\git\new1\Daily Update\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{BEA77FEB-0162-42F4-A200-FCB5CC29CC46}" xr6:coauthVersionLast="43" xr6:coauthVersionMax="43" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{C6633082-CD5A-40D2-9869-8B935DBDFE07}" xr6:coauthVersionLast="43" xr6:coauthVersionMax="43" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -80,7 +80,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="228" uniqueCount="87">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="119" uniqueCount="92">
   <si>
     <t>SQL by Mr.varun</t>
   </si>
@@ -378,13 +378,28 @@
 browser to web Application</t>
   </si>
   <si>
-    <t>16-05-2-2020</t>
-  </si>
-  <si>
     <t>getConnection &amp; mySql table</t>
   </si>
   <si>
     <t>project completed</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Joining More than 2 table </t>
+  </si>
+  <si>
+    <t xml:space="preserve"> getConnection</t>
+  </si>
+  <si>
+    <t>Solved Queries</t>
+  </si>
+  <si>
+    <t>SQL notes</t>
+  </si>
+  <si>
+    <t>java Revision</t>
+  </si>
+  <si>
+    <t>Attirbutes</t>
   </si>
 </sst>
 </file>
@@ -545,18 +560,6 @@
     </xf>
     <xf numFmtId="14" fontId="0" fillId="2" borderId="1" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="1" xfId="0" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="5" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
@@ -565,6 +568,18 @@
     </xf>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="5" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -906,13 +921,13 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:H22"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="A14" sqref="A14"/>
+    <sheetView tabSelected="1" topLeftCell="A7" workbookViewId="0">
+      <selection activeCell="B24" sqref="B24"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="1" max="1" width="13.44140625" customWidth="1"/>
+    <col min="1" max="1" width="14" customWidth="1"/>
     <col min="2" max="2" width="22.6640625" customWidth="1"/>
     <col min="3" max="4" width="25.33203125" customWidth="1"/>
     <col min="5" max="5" width="24.77734375" customWidth="1"/>
@@ -922,16 +937,16 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="A1" s="13" t="s">
+      <c r="A1" s="19" t="s">
         <v>17</v>
       </c>
-      <c r="B1" s="13"/>
-      <c r="C1" s="13"/>
-      <c r="D1" s="13"/>
-      <c r="E1" s="13"/>
-      <c r="F1" s="13"/>
-      <c r="G1" s="13"/>
-      <c r="H1" s="13"/>
+      <c r="B1" s="19"/>
+      <c r="C1" s="19"/>
+      <c r="D1" s="19"/>
+      <c r="E1" s="19"/>
+      <c r="F1" s="19"/>
+      <c r="G1" s="19"/>
+      <c r="H1" s="19"/>
     </row>
     <row r="2" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A2" s="3" t="s">
@@ -1024,7 +1039,7 @@
       <c r="D5" s="5" t="s">
         <v>25</v>
       </c>
-      <c r="E5" s="19" t="s">
+      <c r="E5" s="15" t="s">
         <v>26</v>
       </c>
       <c r="F5" s="3" t="s">
@@ -1047,7 +1062,7 @@
       <c r="C6" s="6" t="s">
         <v>32</v>
       </c>
-      <c r="D6" s="17" t="s">
+      <c r="D6" s="13" t="s">
         <v>33</v>
       </c>
       <c r="E6" s="3" t="s">
@@ -1073,7 +1088,7 @@
       <c r="C7" s="6" t="s">
         <v>38</v>
       </c>
-      <c r="D7" s="18" t="s">
+      <c r="D7" s="14" t="s">
         <v>39</v>
       </c>
       <c r="E7" s="3" t="s">
@@ -1193,10 +1208,10 @@
       <c r="E12" s="3" t="s">
         <v>54</v>
       </c>
-      <c r="F12" s="14" t="s">
+      <c r="F12" s="16" t="s">
         <v>56</v>
       </c>
-      <c r="G12" s="15"/>
+      <c r="G12" s="18"/>
       <c r="H12" s="3" t="s">
         <v>57</v>
       </c>
@@ -1211,7 +1226,7 @@
       <c r="C13" s="3" t="s">
         <v>59</v>
       </c>
-      <c r="D13" s="17" t="s">
+      <c r="D13" s="13" t="s">
         <v>60</v>
       </c>
       <c r="E13" s="3" t="s">
@@ -1223,7 +1238,7 @@
       <c r="G13" s="3" t="s">
         <v>59</v>
       </c>
-      <c r="H13" s="17" t="s">
+      <c r="H13" s="13" t="s">
         <v>62</v>
       </c>
     </row>
@@ -1269,10 +1284,10 @@
       <c r="E15" s="3" t="s">
         <v>71</v>
       </c>
-      <c r="F15" s="14" t="s">
+      <c r="F15" s="16" t="s">
         <v>72</v>
       </c>
-      <c r="G15" s="15"/>
+      <c r="G15" s="18"/>
       <c r="H15" s="3" t="s">
         <v>73</v>
       </c>
@@ -1287,16 +1302,16 @@
       <c r="C16" s="3" t="s">
         <v>77</v>
       </c>
-      <c r="D16" s="17" t="s">
+      <c r="D16" s="13" t="s">
         <v>78</v>
       </c>
       <c r="E16" s="3" t="s">
         <v>81</v>
       </c>
-      <c r="F16" s="14" t="s">
+      <c r="F16" s="16" t="s">
         <v>82</v>
       </c>
-      <c r="G16" s="15"/>
+      <c r="G16" s="18"/>
       <c r="H16" s="3" t="s">
         <v>73</v>
       </c>
@@ -1317,45 +1332,59 @@
       <c r="E17" s="3" t="s">
         <v>67</v>
       </c>
-      <c r="F17" s="14" t="s">
+      <c r="F17" s="16" t="s">
         <v>82</v>
       </c>
-      <c r="G17" s="15"/>
-      <c r="H17" s="17" t="s">
+      <c r="G17" s="18"/>
+      <c r="H17" s="13" t="s">
         <v>83</v>
       </c>
     </row>
     <row r="18" spans="1:8" ht="20.399999999999999" x14ac:dyDescent="0.3">
-      <c r="A18" s="3" t="s">
-        <v>84</v>
+      <c r="A18" s="8">
+        <v>43967</v>
       </c>
       <c r="B18" s="3" t="s">
         <v>22</v>
       </c>
       <c r="C18" s="3" t="s">
+        <v>84</v>
+      </c>
+      <c r="D18" s="3" t="s">
+        <v>84</v>
+      </c>
+      <c r="E18" s="16" t="s">
         <v>85</v>
       </c>
-      <c r="D18" s="3" t="s">
-        <v>85</v>
-      </c>
-      <c r="E18" s="14" t="s">
+      <c r="F18" s="17"/>
+      <c r="G18" s="18"/>
+      <c r="H18" s="13" t="s">
+        <v>83</v>
+      </c>
+    </row>
+    <row r="19" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A19" s="8">
+        <v>43969</v>
+      </c>
+      <c r="B19" s="3" t="s">
         <v>86</v>
       </c>
-      <c r="F18" s="16"/>
-      <c r="G18" s="15"/>
-      <c r="H18" s="17" t="s">
-        <v>83</v>
-      </c>
-    </row>
-    <row r="19" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="A19" s="1"/>
-      <c r="B19" s="1"/>
-      <c r="C19" s="1"/>
-      <c r="D19" s="1"/>
-      <c r="E19" s="1"/>
-      <c r="F19" s="1"/>
-      <c r="G19" s="1"/>
-      <c r="H19" s="1"/>
+      <c r="C19" s="3" t="s">
+        <v>87</v>
+      </c>
+      <c r="D19" s="3" t="s">
+        <v>88</v>
+      </c>
+      <c r="E19" s="3" t="s">
+        <v>89</v>
+      </c>
+      <c r="F19" s="16" t="s">
+        <v>90</v>
+      </c>
+      <c r="G19" s="18"/>
+      <c r="H19" s="3" t="s">
+        <v>91</v>
+      </c>
     </row>
     <row r="20" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A20" s="1"/>
@@ -1388,7 +1417,8 @@
       <c r="H22" s="1"/>
     </row>
   </sheetData>
-  <mergeCells count="6">
+  <mergeCells count="7">
+    <mergeCell ref="F19:G19"/>
     <mergeCell ref="E18:G18"/>
     <mergeCell ref="A1:H1"/>
     <mergeCell ref="F12:G12"/>

--- a/Daily Update/Daily Updates.xlsx
+++ b/Daily Update/Daily Updates.xlsx
@@ -1,14 +1,14 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="4" rupBuild="21425"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="4" rupBuild="22730"/>
   <workbookPr defaultThemeVersion="124226"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\git\new1\Daily Update\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{C6633082-CD5A-40D2-9869-8B935DBDFE07}" xr6:coauthVersionLast="43" xr6:coauthVersionMax="43" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{241E4FF6-9F38-411F-98CE-E6535CC671D3}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -80,7 +80,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="119" uniqueCount="92">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="127" uniqueCount="98">
   <si>
     <t>SQL by Mr.varun</t>
   </si>
@@ -400,6 +400,24 @@
   </si>
   <si>
     <t>Attirbutes</t>
+  </si>
+  <si>
+    <t>Statement</t>
+  </si>
+  <si>
+    <t>Alias and distinct</t>
+  </si>
+  <si>
+    <t>java String</t>
+  </si>
+  <si>
+    <t>Driver Class</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> </t>
+  </si>
+  <si>
+    <t>Attirbutes completed</t>
   </si>
 </sst>
 </file>
@@ -457,7 +475,7 @@
       </patternFill>
     </fill>
   </fills>
-  <borders count="6">
+  <borders count="7">
     <border>
       <left/>
       <right/>
@@ -526,16 +544,23 @@
       </bottom>
       <diagonal/>
     </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top/>
+      <bottom/>
+      <diagonal/>
+    </border>
   </borders>
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="20">
+  <cellXfs count="16">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1"/>
-    <xf numFmtId="14" fontId="1" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top" wrapText="1"/>
-    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
@@ -545,41 +570,41 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
     <xf numFmtId="14" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="14" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="14" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyBorder="1"/>
     <xf numFmtId="14" fontId="1" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="14" fontId="0" fillId="2" borderId="1" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="1" xfId="0" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="5" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="14" fontId="0" fillId="2" borderId="1" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="6" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -919,484 +944,504 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:H22"/>
+  <dimension ref="A1:I22"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A7" workbookViewId="0">
-      <selection activeCell="B24" sqref="B24"/>
+    <sheetView tabSelected="1" topLeftCell="A5" workbookViewId="0">
+      <selection activeCell="H2" sqref="H2:H20"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="1" max="1" width="14" customWidth="1"/>
-    <col min="2" max="2" width="22.6640625" customWidth="1"/>
-    <col min="3" max="4" width="25.33203125" customWidth="1"/>
-    <col min="5" max="5" width="24.77734375" customWidth="1"/>
-    <col min="6" max="6" width="23.6640625" customWidth="1"/>
-    <col min="7" max="7" width="27.5546875" customWidth="1"/>
-    <col min="8" max="8" width="23.21875" customWidth="1"/>
+    <col min="1" max="1" width="14" style="12" customWidth="1"/>
+    <col min="2" max="2" width="22.6640625" style="12" customWidth="1"/>
+    <col min="3" max="4" width="25.33203125" style="12" customWidth="1"/>
+    <col min="5" max="5" width="24.77734375" style="12" customWidth="1"/>
+    <col min="6" max="6" width="23.6640625" style="12" customWidth="1"/>
+    <col min="7" max="7" width="27.5546875" style="12" customWidth="1"/>
+    <col min="8" max="8" width="23.21875" style="12" customWidth="1"/>
+    <col min="9" max="16384" width="8.88671875" style="12"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="A1" s="19" t="s">
+      <c r="A1" s="11" t="s">
         <v>17</v>
       </c>
-      <c r="B1" s="19"/>
-      <c r="C1" s="19"/>
-      <c r="D1" s="19"/>
-      <c r="E1" s="19"/>
-      <c r="F1" s="19"/>
-      <c r="G1" s="19"/>
-      <c r="H1" s="19"/>
+      <c r="B1" s="11"/>
+      <c r="C1" s="11"/>
+      <c r="D1" s="11"/>
+      <c r="E1" s="11"/>
+      <c r="F1" s="11"/>
+      <c r="G1" s="11"/>
+      <c r="H1" s="11"/>
     </row>
     <row r="2" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="A2" s="3" t="s">
+      <c r="A2" s="1" t="s">
         <v>13</v>
       </c>
-      <c r="B2" s="4" t="s">
+      <c r="B2" s="2" t="s">
         <v>8</v>
       </c>
-      <c r="C2" s="4" t="s">
+      <c r="C2" s="2" t="s">
         <v>1</v>
       </c>
-      <c r="D2" s="4" t="s">
+      <c r="D2" s="2" t="s">
         <v>3</v>
       </c>
-      <c r="E2" s="4" t="s">
+      <c r="E2" s="2" t="s">
         <v>6</v>
       </c>
-      <c r="F2" s="4" t="s">
+      <c r="F2" s="2" t="s">
         <v>7</v>
       </c>
-      <c r="G2" s="4" t="s">
+      <c r="G2" s="2" t="s">
         <v>10</v>
       </c>
-      <c r="H2" s="4" t="s">
+      <c r="H2" s="2" t="s">
         <v>12</v>
       </c>
     </row>
     <row r="3" spans="1:8" ht="21.75" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A3" s="4" t="s">
+      <c r="A3" s="2" t="s">
         <v>14</v>
       </c>
-      <c r="B3" s="4" t="s">
+      <c r="B3" s="2" t="s">
         <v>0</v>
       </c>
-      <c r="C3" s="4" t="s">
+      <c r="C3" s="2" t="s">
         <v>2</v>
       </c>
-      <c r="D3" s="4" t="s">
+      <c r="D3" s="2" t="s">
         <v>4</v>
       </c>
-      <c r="E3" s="4" t="s">
+      <c r="E3" s="2" t="s">
         <v>5</v>
       </c>
-      <c r="F3" s="4" t="s">
+      <c r="F3" s="2" t="s">
         <v>9</v>
       </c>
-      <c r="G3" s="4" t="s">
+      <c r="G3" s="2" t="s">
         <v>11</v>
       </c>
-      <c r="H3" s="4" t="s">
+      <c r="H3" s="2" t="s">
         <v>2</v>
       </c>
     </row>
     <row r="4" spans="1:8" ht="28.8" x14ac:dyDescent="0.3">
-      <c r="A4" s="2" t="s">
+      <c r="A4" s="6" t="s">
         <v>19</v>
       </c>
-      <c r="B4" s="3" t="s">
+      <c r="B4" s="1" t="s">
         <v>15</v>
       </c>
-      <c r="C4" s="3" t="s">
+      <c r="C4" s="1" t="s">
         <v>16</v>
       </c>
-      <c r="D4" s="5" t="s">
+      <c r="D4" s="3" t="s">
         <v>18</v>
       </c>
-      <c r="E4" s="3" t="s">
+      <c r="E4" s="1" t="s">
         <v>20</v>
       </c>
-      <c r="F4" s="3" t="s">
+      <c r="F4" s="1" t="s">
         <v>21</v>
       </c>
-      <c r="G4" s="3" t="s">
+      <c r="G4" s="1" t="s">
         <v>22</v>
       </c>
-      <c r="H4" s="6" t="s">
+      <c r="H4" s="1" t="s">
         <v>23</v>
       </c>
     </row>
     <row r="5" spans="1:8" ht="30.6" x14ac:dyDescent="0.3">
-      <c r="A5" s="7">
+      <c r="A5" s="4">
         <v>43956</v>
       </c>
-      <c r="B5" s="5" t="s">
+      <c r="B5" s="3" t="s">
         <v>24</v>
       </c>
-      <c r="C5" s="5" t="s">
+      <c r="C5" s="3" t="s">
         <v>22</v>
       </c>
-      <c r="D5" s="5" t="s">
+      <c r="D5" s="3" t="s">
         <v>25</v>
       </c>
-      <c r="E5" s="15" t="s">
+      <c r="E5" s="7" t="s">
         <v>26</v>
       </c>
-      <c r="F5" s="3" t="s">
+      <c r="F5" s="1" t="s">
         <v>27</v>
       </c>
-      <c r="G5" s="3" t="s">
+      <c r="G5" s="1" t="s">
         <v>28</v>
       </c>
-      <c r="H5" s="3" t="s">
+      <c r="H5" s="1" t="s">
         <v>29</v>
       </c>
     </row>
     <row r="6" spans="1:8" ht="30.6" x14ac:dyDescent="0.3">
-      <c r="A6" s="8">
+      <c r="A6" s="5">
         <v>43957</v>
       </c>
-      <c r="B6" s="3" t="s">
+      <c r="B6" s="1" t="s">
         <v>30</v>
       </c>
-      <c r="C6" s="6" t="s">
+      <c r="C6" s="1" t="s">
         <v>32</v>
       </c>
-      <c r="D6" s="13" t="s">
+      <c r="D6" s="7" t="s">
         <v>33</v>
       </c>
-      <c r="E6" s="3" t="s">
+      <c r="E6" s="1" t="s">
         <v>34</v>
       </c>
-      <c r="F6" s="3" t="s">
+      <c r="F6" s="1" t="s">
         <v>35</v>
       </c>
-      <c r="G6" s="3" t="s">
+      <c r="G6" s="1" t="s">
         <v>36</v>
       </c>
-      <c r="H6" s="3" t="s">
+      <c r="H6" s="1" t="s">
         <v>31</v>
       </c>
     </row>
     <row r="7" spans="1:8" ht="30.6" x14ac:dyDescent="0.3">
-      <c r="A7" s="9">
+      <c r="A7" s="5">
         <v>43958</v>
       </c>
-      <c r="B7" s="5" t="s">
+      <c r="B7" s="3" t="s">
         <v>37</v>
       </c>
-      <c r="C7" s="6" t="s">
+      <c r="C7" s="1" t="s">
         <v>38</v>
       </c>
-      <c r="D7" s="14" t="s">
+      <c r="D7" s="7" t="s">
         <v>39</v>
       </c>
-      <c r="E7" s="3" t="s">
+      <c r="E7" s="1" t="s">
         <v>40</v>
       </c>
-      <c r="F7" s="3" t="s">
+      <c r="F7" s="1" t="s">
         <v>41</v>
       </c>
-      <c r="G7" s="3" t="s">
+      <c r="G7" s="1" t="s">
         <v>42</v>
       </c>
-      <c r="H7" s="5" t="s">
+      <c r="H7" s="3" t="s">
         <v>43</v>
       </c>
     </row>
     <row r="8" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="A8" s="11"/>
-      <c r="B8" s="12"/>
-      <c r="C8" s="12"/>
-      <c r="D8" s="12"/>
-      <c r="E8" s="12"/>
-      <c r="F8" s="12"/>
-      <c r="G8" s="12"/>
-      <c r="H8" s="12"/>
+      <c r="A8" s="13"/>
+      <c r="B8" s="14"/>
+      <c r="C8" s="14"/>
+      <c r="D8" s="14"/>
+      <c r="E8" s="14"/>
+      <c r="F8" s="14"/>
+      <c r="G8" s="14"/>
+      <c r="H8" s="14"/>
     </row>
     <row r="9" spans="1:8" ht="28.5" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A9" s="3" t="s">
+      <c r="A9" s="1" t="s">
         <v>13</v>
       </c>
-      <c r="B9" s="4" t="s">
+      <c r="B9" s="2" t="s">
         <v>8</v>
       </c>
-      <c r="C9" s="4" t="s">
+      <c r="C9" s="2" t="s">
         <v>1</v>
       </c>
-      <c r="D9" s="4" t="s">
+      <c r="D9" s="2" t="s">
         <v>3</v>
       </c>
-      <c r="E9" s="4" t="s">
+      <c r="E9" s="2" t="s">
         <v>6</v>
       </c>
-      <c r="F9" s="4" t="s">
+      <c r="F9" s="2" t="s">
         <v>7</v>
       </c>
-      <c r="G9" s="4" t="s">
+      <c r="G9" s="2" t="s">
         <v>10</v>
       </c>
-      <c r="H9" s="4" t="s">
+      <c r="H9" s="2" t="s">
         <v>12</v>
       </c>
     </row>
     <row r="10" spans="1:8" ht="27" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A10" s="4" t="s">
+      <c r="A10" s="2" t="s">
         <v>14</v>
       </c>
-      <c r="B10" s="4" t="s">
+      <c r="B10" s="2" t="s">
         <v>0</v>
       </c>
-      <c r="C10" s="4" t="s">
+      <c r="C10" s="2" t="s">
         <v>2</v>
       </c>
-      <c r="D10" s="4" t="s">
+      <c r="D10" s="2" t="s">
         <v>4</v>
       </c>
-      <c r="E10" s="4" t="s">
+      <c r="E10" s="2" t="s">
         <v>11</v>
       </c>
-      <c r="F10" s="4" t="s">
+      <c r="F10" s="2" t="s">
         <v>44</v>
       </c>
-      <c r="G10" s="4" t="s">
+      <c r="G10" s="2" t="s">
         <v>45</v>
       </c>
-      <c r="H10" s="4" t="s">
+      <c r="H10" s="2" t="s">
         <v>2</v>
       </c>
     </row>
     <row r="11" spans="1:8" ht="28.8" x14ac:dyDescent="0.3">
-      <c r="A11" s="10" t="s">
+      <c r="A11" s="6" t="s">
         <v>46</v>
       </c>
-      <c r="B11" s="5" t="s">
+      <c r="B11" s="3" t="s">
         <v>47</v>
       </c>
-      <c r="C11" s="3" t="s">
+      <c r="C11" s="1" t="s">
         <v>48</v>
       </c>
-      <c r="D11" s="5" t="s">
+      <c r="D11" s="3" t="s">
         <v>49</v>
       </c>
-      <c r="E11" s="3" t="s">
+      <c r="E11" s="1" t="s">
         <v>50</v>
       </c>
-      <c r="F11" s="3" t="s">
+      <c r="F11" s="1" t="s">
         <v>51</v>
       </c>
-      <c r="G11" s="3" t="s">
+      <c r="G11" s="1" t="s">
         <v>48</v>
       </c>
-      <c r="H11" s="3" t="s">
+      <c r="H11" s="1" t="s">
         <v>52</v>
       </c>
     </row>
     <row r="12" spans="1:8" ht="21" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A12" s="8">
+      <c r="A12" s="5">
         <v>43960</v>
       </c>
-      <c r="B12" s="3" t="s">
+      <c r="B12" s="1" t="s">
         <v>22</v>
       </c>
-      <c r="C12" s="3" t="s">
+      <c r="C12" s="1" t="s">
         <v>53</v>
       </c>
-      <c r="D12" s="3" t="s">
+      <c r="D12" s="1" t="s">
         <v>55</v>
       </c>
-      <c r="E12" s="3" t="s">
+      <c r="E12" s="1" t="s">
         <v>54</v>
       </c>
-      <c r="F12" s="16" t="s">
+      <c r="F12" s="8" t="s">
         <v>56</v>
       </c>
-      <c r="G12" s="18"/>
-      <c r="H12" s="3" t="s">
+      <c r="G12" s="9"/>
+      <c r="H12" s="1" t="s">
         <v>57</v>
       </c>
     </row>
     <row r="13" spans="1:8" ht="20.399999999999999" x14ac:dyDescent="0.3">
-      <c r="A13" s="8">
+      <c r="A13" s="5">
         <v>43962</v>
       </c>
-      <c r="B13" s="3" t="s">
+      <c r="B13" s="1" t="s">
         <v>58</v>
       </c>
-      <c r="C13" s="3" t="s">
+      <c r="C13" s="1" t="s">
         <v>59</v>
       </c>
-      <c r="D13" s="13" t="s">
+      <c r="D13" s="7" t="s">
         <v>60</v>
       </c>
-      <c r="E13" s="3" t="s">
+      <c r="E13" s="1" t="s">
         <v>61</v>
       </c>
-      <c r="F13" s="3" t="s">
+      <c r="F13" s="1" t="s">
         <v>63</v>
       </c>
-      <c r="G13" s="3" t="s">
+      <c r="G13" s="1" t="s">
         <v>59</v>
       </c>
-      <c r="H13" s="13" t="s">
+      <c r="H13" s="7" t="s">
         <v>62</v>
       </c>
     </row>
     <row r="14" spans="1:8" ht="18" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A14" s="8">
+      <c r="A14" s="5">
         <v>43963</v>
       </c>
-      <c r="B14" s="3" t="s">
+      <c r="B14" s="1" t="s">
         <v>64</v>
       </c>
-      <c r="C14" s="3" t="s">
+      <c r="C14" s="1" t="s">
         <v>65</v>
       </c>
-      <c r="D14" s="3" t="s">
+      <c r="D14" s="1" t="s">
         <v>66</v>
       </c>
-      <c r="E14" s="3" t="s">
+      <c r="E14" s="1" t="s">
         <v>67</v>
       </c>
-      <c r="F14" s="3" t="s">
+      <c r="F14" s="1" t="s">
         <v>68</v>
       </c>
-      <c r="G14" s="3" t="s">
+      <c r="G14" s="1" t="s">
         <v>65</v>
       </c>
-      <c r="H14" s="3" t="s">
+      <c r="H14" s="1" t="s">
         <v>69</v>
       </c>
     </row>
     <row r="15" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="A15" s="8">
+      <c r="A15" s="5">
         <v>43964</v>
       </c>
-      <c r="B15" s="3" t="s">
+      <c r="B15" s="1" t="s">
         <v>74</v>
       </c>
-      <c r="C15" s="3" t="s">
+      <c r="C15" s="1" t="s">
         <v>70</v>
       </c>
-      <c r="D15" s="3" t="s">
+      <c r="D15" s="1" t="s">
         <v>75</v>
       </c>
-      <c r="E15" s="3" t="s">
+      <c r="E15" s="1" t="s">
         <v>71</v>
       </c>
-      <c r="F15" s="16" t="s">
+      <c r="F15" s="8" t="s">
         <v>72</v>
       </c>
-      <c r="G15" s="18"/>
-      <c r="H15" s="3" t="s">
+      <c r="G15" s="9"/>
+      <c r="H15" s="1" t="s">
         <v>73</v>
       </c>
     </row>
     <row r="16" spans="1:8" ht="20.399999999999999" x14ac:dyDescent="0.3">
-      <c r="A16" s="8">
+      <c r="A16" s="5">
         <v>43965</v>
       </c>
-      <c r="B16" s="3" t="s">
+      <c r="B16" s="1" t="s">
         <v>41</v>
       </c>
-      <c r="C16" s="3" t="s">
+      <c r="C16" s="1" t="s">
         <v>77</v>
       </c>
-      <c r="D16" s="13" t="s">
+      <c r="D16" s="7" t="s">
         <v>78</v>
       </c>
-      <c r="E16" s="3" t="s">
+      <c r="E16" s="1" t="s">
         <v>81</v>
       </c>
-      <c r="F16" s="16" t="s">
+      <c r="F16" s="8" t="s">
         <v>82</v>
       </c>
-      <c r="G16" s="18"/>
-      <c r="H16" s="3" t="s">
+      <c r="G16" s="9"/>
+      <c r="H16" s="1" t="s">
         <v>73</v>
       </c>
     </row>
-    <row r="17" spans="1:8" ht="28.8" x14ac:dyDescent="0.3">
-      <c r="A17" s="8">
+    <row r="17" spans="1:9" ht="28.8" x14ac:dyDescent="0.3">
+      <c r="A17" s="5">
         <v>43966</v>
       </c>
-      <c r="B17" s="3" t="s">
+      <c r="B17" s="1" t="s">
         <v>76</v>
       </c>
-      <c r="C17" s="3" t="s">
+      <c r="C17" s="1" t="s">
         <v>79</v>
       </c>
-      <c r="D17" s="5" t="s">
+      <c r="D17" s="3" t="s">
         <v>80</v>
       </c>
-      <c r="E17" s="3" t="s">
+      <c r="E17" s="1" t="s">
         <v>67</v>
       </c>
-      <c r="F17" s="16" t="s">
+      <c r="F17" s="8" t="s">
         <v>82</v>
       </c>
-      <c r="G17" s="18"/>
-      <c r="H17" s="13" t="s">
+      <c r="G17" s="9"/>
+      <c r="H17" s="7" t="s">
         <v>83</v>
       </c>
     </row>
-    <row r="18" spans="1:8" ht="20.399999999999999" x14ac:dyDescent="0.3">
-      <c r="A18" s="8">
+    <row r="18" spans="1:9" ht="20.399999999999999" x14ac:dyDescent="0.3">
+      <c r="A18" s="5">
         <v>43967</v>
       </c>
-      <c r="B18" s="3" t="s">
+      <c r="B18" s="1" t="s">
         <v>22</v>
       </c>
-      <c r="C18" s="3" t="s">
+      <c r="C18" s="1" t="s">
         <v>84</v>
       </c>
-      <c r="D18" s="3" t="s">
+      <c r="D18" s="1" t="s">
         <v>84</v>
       </c>
-      <c r="E18" s="16" t="s">
+      <c r="E18" s="8" t="s">
         <v>85</v>
       </c>
-      <c r="F18" s="17"/>
-      <c r="G18" s="18"/>
-      <c r="H18" s="13" t="s">
+      <c r="F18" s="10"/>
+      <c r="G18" s="9"/>
+      <c r="H18" s="7" t="s">
         <v>83</v>
       </c>
     </row>
-    <row r="19" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="A19" s="8">
+    <row r="19" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="A19" s="5">
         <v>43969</v>
       </c>
-      <c r="B19" s="3" t="s">
+      <c r="B19" s="1" t="s">
         <v>86</v>
       </c>
-      <c r="C19" s="3" t="s">
+      <c r="C19" s="1" t="s">
         <v>87</v>
       </c>
-      <c r="D19" s="3" t="s">
+      <c r="D19" s="1" t="s">
         <v>88</v>
       </c>
-      <c r="E19" s="3" t="s">
+      <c r="E19" s="1" t="s">
         <v>89</v>
       </c>
-      <c r="F19" s="16" t="s">
+      <c r="F19" s="8" t="s">
         <v>90</v>
       </c>
-      <c r="G19" s="18"/>
-      <c r="H19" s="3" t="s">
+      <c r="G19" s="9"/>
+      <c r="H19" s="1" t="s">
         <v>91</v>
       </c>
     </row>
-    <row r="20" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="A20" s="1"/>
-      <c r="B20" s="1"/>
-      <c r="C20" s="1"/>
-      <c r="D20" s="1"/>
-      <c r="E20" s="1"/>
-      <c r="F20" s="1"/>
-      <c r="G20" s="1"/>
-      <c r="H20" s="1"/>
-    </row>
-    <row r="21" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="20" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="A20" s="5">
+        <v>43970</v>
+      </c>
+      <c r="B20" s="1" t="s">
+        <v>67</v>
+      </c>
+      <c r="C20" s="1" t="s">
+        <v>92</v>
+      </c>
+      <c r="D20" s="1" t="s">
+        <v>92</v>
+      </c>
+      <c r="E20" s="1" t="s">
+        <v>93</v>
+      </c>
+      <c r="F20" s="1" t="s">
+        <v>94</v>
+      </c>
+      <c r="G20" s="1" t="s">
+        <v>95</v>
+      </c>
+      <c r="H20" s="1" t="s">
+        <v>97</v>
+      </c>
+      <c r="I20" s="15" t="s">
+        <v>96</v>
+      </c>
+    </row>
+    <row r="21" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A21" s="1"/>
       <c r="B21" s="1"/>
       <c r="C21" s="1"/>
@@ -1406,7 +1451,7 @@
       <c r="G21" s="1"/>
       <c r="H21" s="1"/>
     </row>
-    <row r="22" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="22" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A22" s="1"/>
       <c r="B22" s="1"/>
       <c r="C22" s="1"/>

--- a/Daily Update/Daily Updates.xlsx
+++ b/Daily Update/Daily Updates.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\git\new1\Daily Update\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{241E4FF6-9F38-411F-98CE-E6535CC671D3}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{3FCC73B6-FF6B-4E73-ADFC-7A5C02B0AD91}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -80,7 +80,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="127" uniqueCount="98">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="149" uniqueCount="114">
   <si>
     <t>SQL by Mr.varun</t>
   </si>
@@ -418,6 +418,54 @@
   </si>
   <si>
     <t>Attirbutes completed</t>
+  </si>
+  <si>
+    <t>completed joins</t>
+  </si>
+  <si>
+    <t>21-052020</t>
+  </si>
+  <si>
+    <t>DDL</t>
+  </si>
+  <si>
+    <t>mysql table creation</t>
+  </si>
+  <si>
+    <t>solved queris</t>
+  </si>
+  <si>
+    <t>html</t>
+  </si>
+  <si>
+    <t>structure of db-URL</t>
+  </si>
+  <si>
+    <t>jsp</t>
+  </si>
+  <si>
+    <t>query execution</t>
+  </si>
+  <si>
+    <t>selection</t>
+  </si>
+  <si>
+    <t>sql notes</t>
+  </si>
+  <si>
+    <t>jdbc</t>
+  </si>
+  <si>
+    <t>DML</t>
+  </si>
+  <si>
+    <t>practical</t>
+  </si>
+  <si>
+    <t>Queries</t>
+  </si>
+  <si>
+    <t>SQL single row functions</t>
   </si>
 </sst>
 </file>
@@ -582,6 +630,18 @@
     <xf numFmtId="0" fontId="4" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="14" fontId="0" fillId="2" borderId="1" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="6" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
@@ -592,18 +652,6 @@
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="14" fontId="0" fillId="2" borderId="1" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="6" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
   </cellXfs>
@@ -944,35 +992,35 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:I22"/>
+  <dimension ref="A1:I28"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A5" workbookViewId="0">
-      <selection activeCell="H2" sqref="H2:H20"/>
+    <sheetView tabSelected="1" topLeftCell="A10" workbookViewId="0">
+      <selection activeCell="H26" sqref="H26"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="1" max="1" width="14" style="12" customWidth="1"/>
-    <col min="2" max="2" width="22.6640625" style="12" customWidth="1"/>
-    <col min="3" max="4" width="25.33203125" style="12" customWidth="1"/>
-    <col min="5" max="5" width="24.77734375" style="12" customWidth="1"/>
-    <col min="6" max="6" width="23.6640625" style="12" customWidth="1"/>
-    <col min="7" max="7" width="27.5546875" style="12" customWidth="1"/>
-    <col min="8" max="8" width="23.21875" style="12" customWidth="1"/>
-    <col min="9" max="16384" width="8.88671875" style="12"/>
+    <col min="1" max="1" width="14" style="8" customWidth="1"/>
+    <col min="2" max="2" width="22.6640625" style="8" customWidth="1"/>
+    <col min="3" max="4" width="25.33203125" style="8" customWidth="1"/>
+    <col min="5" max="5" width="24.77734375" style="8" customWidth="1"/>
+    <col min="6" max="6" width="23.6640625" style="8" customWidth="1"/>
+    <col min="7" max="7" width="27.5546875" style="8" customWidth="1"/>
+    <col min="8" max="8" width="23.21875" style="8" customWidth="1"/>
+    <col min="9" max="16384" width="8.88671875" style="8"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="A1" s="11" t="s">
+      <c r="A1" s="15" t="s">
         <v>17</v>
       </c>
-      <c r="B1" s="11"/>
-      <c r="C1" s="11"/>
-      <c r="D1" s="11"/>
-      <c r="E1" s="11"/>
-      <c r="F1" s="11"/>
-      <c r="G1" s="11"/>
-      <c r="H1" s="11"/>
+      <c r="B1" s="15"/>
+      <c r="C1" s="15"/>
+      <c r="D1" s="15"/>
+      <c r="E1" s="15"/>
+      <c r="F1" s="15"/>
+      <c r="G1" s="15"/>
+      <c r="H1" s="15"/>
     </row>
     <row r="2" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A2" s="1" t="s">
@@ -1131,14 +1179,14 @@
       </c>
     </row>
     <row r="8" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="A8" s="13"/>
-      <c r="B8" s="14"/>
-      <c r="C8" s="14"/>
-      <c r="D8" s="14"/>
-      <c r="E8" s="14"/>
-      <c r="F8" s="14"/>
-      <c r="G8" s="14"/>
-      <c r="H8" s="14"/>
+      <c r="A8" s="9"/>
+      <c r="B8" s="10"/>
+      <c r="C8" s="10"/>
+      <c r="D8" s="10"/>
+      <c r="E8" s="10"/>
+      <c r="F8" s="10"/>
+      <c r="G8" s="10"/>
+      <c r="H8" s="10"/>
     </row>
     <row r="9" spans="1:8" ht="28.5" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A9" s="1" t="s">
@@ -1234,10 +1282,10 @@
       <c r="E12" s="1" t="s">
         <v>54</v>
       </c>
-      <c r="F12" s="8" t="s">
+      <c r="F12" s="12" t="s">
         <v>56</v>
       </c>
-      <c r="G12" s="9"/>
+      <c r="G12" s="13"/>
       <c r="H12" s="1" t="s">
         <v>57</v>
       </c>
@@ -1310,10 +1358,10 @@
       <c r="E15" s="1" t="s">
         <v>71</v>
       </c>
-      <c r="F15" s="8" t="s">
+      <c r="F15" s="12" t="s">
         <v>72</v>
       </c>
-      <c r="G15" s="9"/>
+      <c r="G15" s="13"/>
       <c r="H15" s="1" t="s">
         <v>73</v>
       </c>
@@ -1334,10 +1382,10 @@
       <c r="E16" s="1" t="s">
         <v>81</v>
       </c>
-      <c r="F16" s="8" t="s">
+      <c r="F16" s="12" t="s">
         <v>82</v>
       </c>
-      <c r="G16" s="9"/>
+      <c r="G16" s="13"/>
       <c r="H16" s="1" t="s">
         <v>73</v>
       </c>
@@ -1358,10 +1406,10 @@
       <c r="E17" s="1" t="s">
         <v>67</v>
       </c>
-      <c r="F17" s="8" t="s">
+      <c r="F17" s="12" t="s">
         <v>82</v>
       </c>
-      <c r="G17" s="9"/>
+      <c r="G17" s="13"/>
       <c r="H17" s="7" t="s">
         <v>83</v>
       </c>
@@ -1379,11 +1427,11 @@
       <c r="D18" s="1" t="s">
         <v>84</v>
       </c>
-      <c r="E18" s="8" t="s">
+      <c r="E18" s="12" t="s">
         <v>85</v>
       </c>
-      <c r="F18" s="10"/>
-      <c r="G18" s="9"/>
+      <c r="F18" s="14"/>
+      <c r="G18" s="13"/>
       <c r="H18" s="7" t="s">
         <v>83</v>
       </c>
@@ -1404,10 +1452,10 @@
       <c r="E19" s="1" t="s">
         <v>89</v>
       </c>
-      <c r="F19" s="8" t="s">
+      <c r="F19" s="12" t="s">
         <v>90</v>
       </c>
-      <c r="G19" s="9"/>
+      <c r="G19" s="13"/>
       <c r="H19" s="1" t="s">
         <v>91</v>
       </c>
@@ -1437,29 +1485,137 @@
       <c r="H20" s="1" t="s">
         <v>97</v>
       </c>
-      <c r="I20" s="15" t="s">
+      <c r="I20" s="11" t="s">
         <v>96</v>
       </c>
     </row>
     <row r="21" spans="1:9" x14ac:dyDescent="0.3">
-      <c r="A21" s="1"/>
-      <c r="B21" s="1"/>
-      <c r="C21" s="1"/>
-      <c r="D21" s="1"/>
-      <c r="E21" s="1"/>
-      <c r="F21" s="1"/>
-      <c r="G21" s="1"/>
-      <c r="H21" s="1"/>
+      <c r="A21" s="5">
+        <v>43971</v>
+      </c>
+      <c r="B21" s="1" t="s">
+        <v>98</v>
+      </c>
+      <c r="C21" s="1" t="s">
+        <v>101</v>
+      </c>
+      <c r="D21" s="1" t="s">
+        <v>102</v>
+      </c>
+      <c r="E21" s="1" t="s">
+        <v>107</v>
+      </c>
+      <c r="F21" s="1" t="s">
+        <v>103</v>
+      </c>
+      <c r="G21" s="1" t="s">
+        <v>104</v>
+      </c>
+      <c r="H21" s="1" t="s">
+        <v>105</v>
+      </c>
     </row>
     <row r="22" spans="1:9" x14ac:dyDescent="0.3">
-      <c r="A22" s="1"/>
-      <c r="B22" s="1"/>
-      <c r="C22" s="1"/>
-      <c r="D22" s="1"/>
-      <c r="E22" s="1"/>
-      <c r="F22" s="1"/>
-      <c r="G22" s="1"/>
-      <c r="H22" s="1"/>
+      <c r="A22" s="1" t="s">
+        <v>99</v>
+      </c>
+      <c r="B22" s="1" t="s">
+        <v>100</v>
+      </c>
+      <c r="C22" s="1" t="s">
+        <v>106</v>
+      </c>
+      <c r="D22" s="1" t="s">
+        <v>100</v>
+      </c>
+      <c r="E22" s="1" t="s">
+        <v>108</v>
+      </c>
+      <c r="F22" s="1" t="s">
+        <v>109</v>
+      </c>
+      <c r="G22" s="1" t="s">
+        <v>109</v>
+      </c>
+      <c r="H22" s="1" t="s">
+        <v>105</v>
+      </c>
+    </row>
+    <row r="23" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="A23" s="5">
+        <v>43973</v>
+      </c>
+      <c r="B23" s="1" t="s">
+        <v>110</v>
+      </c>
+      <c r="C23" s="1" t="s">
+        <v>111</v>
+      </c>
+      <c r="D23" s="1" t="s">
+        <v>110</v>
+      </c>
+      <c r="E23" s="1" t="s">
+        <v>112</v>
+      </c>
+      <c r="F23" s="1" t="s">
+        <v>109</v>
+      </c>
+      <c r="G23" s="1" t="s">
+        <v>109</v>
+      </c>
+      <c r="H23" s="1" t="s">
+        <v>113</v>
+      </c>
+    </row>
+    <row r="24" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="A24" s="1"/>
+      <c r="B24" s="1"/>
+      <c r="C24" s="1"/>
+      <c r="D24" s="1"/>
+      <c r="E24" s="1"/>
+      <c r="F24" s="1"/>
+      <c r="G24" s="1"/>
+      <c r="H24" s="1"/>
+    </row>
+    <row r="25" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="A25" s="1"/>
+      <c r="B25" s="1"/>
+      <c r="C25" s="1"/>
+      <c r="D25" s="1"/>
+      <c r="E25" s="1"/>
+      <c r="F25" s="1"/>
+      <c r="G25" s="1"/>
+      <c r="H25" s="1"/>
+    </row>
+    <row r="26" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="A26" s="1"/>
+      <c r="B26" s="1"/>
+      <c r="C26" s="1"/>
+      <c r="D26" s="1"/>
+      <c r="E26" s="1"/>
+      <c r="F26" s="1"/>
+      <c r="G26" s="1"/>
+      <c r="H26" s="1"/>
+    </row>
+    <row r="27" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="A27" s="1"/>
+      <c r="B27" s="1"/>
+      <c r="C27" s="1"/>
+      <c r="D27" s="1"/>
+      <c r="E27" s="1"/>
+      <c r="F27" s="1"/>
+      <c r="G27" s="1"/>
+      <c r="H27" s="1"/>
+    </row>
+    <row r="28" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="A28" s="1"/>
+      <c r="B28" s="1"/>
+      <c r="C28" s="1"/>
+      <c r="D28" s="1"/>
+      <c r="E28" s="1"/>
+      <c r="F28" s="1"/>
+      <c r="G28" s="1"/>
+      <c r="H28" s="1"/>
     </row>
   </sheetData>
   <mergeCells count="7">

--- a/Daily Update/Daily Updates.xlsx
+++ b/Daily Update/Daily Updates.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\git\new1\Daily Update\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{3FCC73B6-FF6B-4E73-ADFC-7A5C02B0AD91}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{8DE7668E-8DD0-49A0-A847-7E1A23141DEA}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -995,7 +995,7 @@
   <dimension ref="A1:I28"/>
   <sheetViews>
     <sheetView tabSelected="1" topLeftCell="A10" workbookViewId="0">
-      <selection activeCell="H26" sqref="H26"/>
+      <selection activeCell="H23" activeCellId="1" sqref="A23:C23 H23"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>

--- a/Daily Update/Daily Updates.xlsx
+++ b/Daily Update/Daily Updates.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\git\new1\Daily Update\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{8DE7668E-8DD0-49A0-A847-7E1A23141DEA}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{AF987DF8-3169-4936-A332-C1CE377329FD}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -80,7 +80,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="149" uniqueCount="114">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="156" uniqueCount="117">
   <si>
     <t>SQL by Mr.varun</t>
   </si>
@@ -466,6 +466,15 @@
   </si>
   <si>
     <t>SQL single row functions</t>
+  </si>
+  <si>
+    <t>Notes</t>
+  </si>
+  <si>
+    <t>jdbc programming</t>
+  </si>
+  <si>
+    <t>jdbc progrmming</t>
   </si>
 </sst>
 </file>
@@ -995,7 +1004,7 @@
   <dimension ref="A1:I28"/>
   <sheetViews>
     <sheetView tabSelected="1" topLeftCell="A10" workbookViewId="0">
-      <selection activeCell="H23" activeCellId="1" sqref="A23:C23 H23"/>
+      <selection activeCell="H24" activeCellId="1" sqref="C24 H24"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -1568,14 +1577,30 @@
       </c>
     </row>
     <row r="24" spans="1:9" x14ac:dyDescent="0.3">
-      <c r="A24" s="1"/>
-      <c r="B24" s="1"/>
-      <c r="C24" s="1"/>
-      <c r="D24" s="1"/>
-      <c r="E24" s="1"/>
-      <c r="F24" s="1"/>
-      <c r="G24" s="1"/>
-      <c r="H24" s="1"/>
+      <c r="A24" s="5">
+        <v>43974</v>
+      </c>
+      <c r="B24" s="1" t="s">
+        <v>22</v>
+      </c>
+      <c r="C24" s="1" t="s">
+        <v>111</v>
+      </c>
+      <c r="D24" s="1" t="s">
+        <v>116</v>
+      </c>
+      <c r="E24" s="1" t="s">
+        <v>114</v>
+      </c>
+      <c r="F24" s="1" t="s">
+        <v>115</v>
+      </c>
+      <c r="G24" s="1" t="s">
+        <v>115</v>
+      </c>
+      <c r="H24" s="1" t="s">
+        <v>113</v>
+      </c>
     </row>
     <row r="25" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A25" s="1"/>

--- a/Daily Update/Daily Updates.xlsx
+++ b/Daily Update/Daily Updates.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\git\new1\Daily Update\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{AF987DF8-3169-4936-A332-C1CE377329FD}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{CC01513A-6664-4BB9-9296-1F37BD7F0B14}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -80,7 +80,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="156" uniqueCount="117">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="163" uniqueCount="120">
   <si>
     <t>SQL by Mr.varun</t>
   </si>
@@ -475,6 +475,15 @@
   </si>
   <si>
     <t>jdbc progrmming</t>
+  </si>
+  <si>
+    <t>DML queries</t>
+  </si>
+  <si>
+    <t>queries</t>
+  </si>
+  <si>
+    <t>operators</t>
   </si>
 </sst>
 </file>
@@ -1003,8 +1012,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:I28"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A10" workbookViewId="0">
-      <selection activeCell="H24" activeCellId="1" sqref="C24 H24"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="H26" sqref="H26"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -1603,14 +1612,30 @@
       </c>
     </row>
     <row r="25" spans="1:9" x14ac:dyDescent="0.3">
-      <c r="A25" s="1"/>
-      <c r="B25" s="1"/>
-      <c r="C25" s="1"/>
-      <c r="D25" s="1"/>
-      <c r="E25" s="1"/>
-      <c r="F25" s="1"/>
-      <c r="G25" s="1"/>
-      <c r="H25" s="1"/>
+      <c r="A25" s="5">
+        <v>43976</v>
+      </c>
+      <c r="B25" s="1" t="s">
+        <v>117</v>
+      </c>
+      <c r="C25" s="1" t="s">
+        <v>115</v>
+      </c>
+      <c r="D25" s="1" t="s">
+        <v>118</v>
+      </c>
+      <c r="E25" s="1" t="s">
+        <v>119</v>
+      </c>
+      <c r="F25" s="1" t="s">
+        <v>115</v>
+      </c>
+      <c r="G25" s="1" t="s">
+        <v>115</v>
+      </c>
+      <c r="H25" s="1" t="s">
+        <v>113</v>
+      </c>
     </row>
     <row r="26" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A26" s="1"/>

--- a/Daily Update/Daily Updates.xlsx
+++ b/Daily Update/Daily Updates.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\git\new1\Daily Update\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{CC01513A-6664-4BB9-9296-1F37BD7F0B14}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{42A7AFAF-EC57-4AA1-A710-277223298190}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -80,7 +80,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="163" uniqueCount="120">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="170" uniqueCount="124">
   <si>
     <t>SQL by Mr.varun</t>
   </si>
@@ -484,6 +484,18 @@
   </si>
   <si>
     <t>operators</t>
+  </si>
+  <si>
+    <t>Co-related sub query</t>
+  </si>
+  <si>
+    <t>jdbc programing</t>
+  </si>
+  <si>
+    <t>jdbc assignment</t>
+  </si>
+  <si>
+    <t>SQL queries</t>
   </si>
 </sst>
 </file>
@@ -1012,8 +1024,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:I28"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="H26" sqref="H26"/>
+    <sheetView tabSelected="1" topLeftCell="A15" workbookViewId="0">
+      <selection activeCell="E21" sqref="E21"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -1638,14 +1650,30 @@
       </c>
     </row>
     <row r="26" spans="1:9" x14ac:dyDescent="0.3">
-      <c r="A26" s="1"/>
-      <c r="B26" s="1"/>
-      <c r="C26" s="1"/>
-      <c r="D26" s="1"/>
-      <c r="E26" s="1"/>
-      <c r="F26" s="1"/>
-      <c r="G26" s="1"/>
-      <c r="H26" s="1"/>
+      <c r="A26" s="5">
+        <v>43978</v>
+      </c>
+      <c r="B26" s="1" t="s">
+        <v>120</v>
+      </c>
+      <c r="C26" s="1" t="s">
+        <v>115</v>
+      </c>
+      <c r="D26" s="1" t="s">
+        <v>118</v>
+      </c>
+      <c r="E26" s="1" t="s">
+        <v>121</v>
+      </c>
+      <c r="F26" s="1" t="s">
+        <v>122</v>
+      </c>
+      <c r="G26" s="1" t="s">
+        <v>115</v>
+      </c>
+      <c r="H26" s="1" t="s">
+        <v>123</v>
+      </c>
     </row>
     <row r="27" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A27" s="1"/>

--- a/Daily Update/Daily Updates.xlsx
+++ b/Daily Update/Daily Updates.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\git\new1\Daily Update\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{42A7AFAF-EC57-4AA1-A710-277223298190}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{939C9DF8-034E-4F3F-BB40-51488B49DEBD}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="2232" yWindow="2232" windowWidth="17280" windowHeight="8964" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -80,7 +80,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="170" uniqueCount="124">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="177" uniqueCount="126">
   <si>
     <t>SQL by Mr.varun</t>
   </si>
@@ -496,6 +496,12 @@
   </si>
   <si>
     <t>SQL queries</t>
+  </si>
+  <si>
+    <t>notes</t>
+  </si>
+  <si>
+    <t>SQl Classification</t>
   </si>
 </sst>
 </file>
@@ -1024,8 +1030,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:I28"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A15" workbookViewId="0">
-      <selection activeCell="E21" sqref="E21"/>
+    <sheetView tabSelected="1" topLeftCell="C17" workbookViewId="0">
+      <selection activeCell="H28" sqref="H28"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -1651,7 +1657,7 @@
     </row>
     <row r="26" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A26" s="5">
-        <v>43978</v>
+        <v>43977</v>
       </c>
       <c r="B26" s="1" t="s">
         <v>120</v>
@@ -1676,14 +1682,30 @@
       </c>
     </row>
     <row r="27" spans="1:9" x14ac:dyDescent="0.3">
-      <c r="A27" s="1"/>
-      <c r="B27" s="1"/>
-      <c r="C27" s="1"/>
-      <c r="D27" s="1"/>
-      <c r="E27" s="1"/>
-      <c r="F27" s="1"/>
-      <c r="G27" s="1"/>
-      <c r="H27" s="1"/>
+      <c r="A27" s="5">
+        <v>43978</v>
+      </c>
+      <c r="B27" s="1" t="s">
+        <v>118</v>
+      </c>
+      <c r="C27" s="1" t="s">
+        <v>115</v>
+      </c>
+      <c r="D27" s="1" t="s">
+        <v>118</v>
+      </c>
+      <c r="E27" s="1" t="s">
+        <v>124</v>
+      </c>
+      <c r="F27" s="1" t="s">
+        <v>115</v>
+      </c>
+      <c r="G27" s="1" t="s">
+        <v>115</v>
+      </c>
+      <c r="H27" s="1" t="s">
+        <v>125</v>
+      </c>
     </row>
     <row r="28" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A28" s="1"/>

--- a/Daily Update/Daily Updates.xlsx
+++ b/Daily Update/Daily Updates.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\git\new1\Daily Update\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{939C9DF8-034E-4F3F-BB40-51488B49DEBD}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{96E3FBA0-E886-4084-825A-F6B6D1C9A320}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="2232" yWindow="2232" windowWidth="17280" windowHeight="8964" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -80,7 +80,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="177" uniqueCount="126">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="191" uniqueCount="132">
   <si>
     <t>SQL by Mr.varun</t>
   </si>
@@ -502,6 +502,24 @@
   </si>
   <si>
     <t>SQl Classification</t>
+  </si>
+  <si>
+    <t>Servlet</t>
+  </si>
+  <si>
+    <t>Attributes</t>
+  </si>
+  <si>
+    <t>Normalization</t>
+  </si>
+  <si>
+    <t>web resources</t>
+  </si>
+  <si>
+    <t>SQL ppt</t>
+  </si>
+  <si>
+    <t>servlet</t>
   </si>
 </sst>
 </file>
@@ -1028,10 +1046,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:I28"/>
+  <dimension ref="A1:I36"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="C17" workbookViewId="0">
-      <selection activeCell="H28" sqref="H28"/>
+    <sheetView tabSelected="1" topLeftCell="A12" workbookViewId="0">
+      <selection activeCell="J31" sqref="J31"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -1708,14 +1726,126 @@
       </c>
     </row>
     <row r="28" spans="1:9" x14ac:dyDescent="0.3">
-      <c r="A28" s="1"/>
-      <c r="B28" s="1"/>
-      <c r="C28" s="1"/>
-      <c r="D28" s="1"/>
-      <c r="E28" s="1"/>
-      <c r="F28" s="1"/>
-      <c r="G28" s="1"/>
-      <c r="H28" s="1"/>
+      <c r="A28" s="5">
+        <v>43979</v>
+      </c>
+      <c r="B28" s="1" t="s">
+        <v>127</v>
+      </c>
+      <c r="C28" s="1" t="s">
+        <v>126</v>
+      </c>
+      <c r="D28" s="1" t="s">
+        <v>112</v>
+      </c>
+      <c r="E28" s="1" t="s">
+        <v>130</v>
+      </c>
+      <c r="F28" s="1" t="s">
+        <v>130</v>
+      </c>
+      <c r="G28" s="1" t="s">
+        <v>130</v>
+      </c>
+      <c r="H28" s="1" t="s">
+        <v>125</v>
+      </c>
+    </row>
+    <row r="29" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="A29" s="5">
+        <v>43980</v>
+      </c>
+      <c r="B29" s="1" t="s">
+        <v>128</v>
+      </c>
+      <c r="C29" s="1" t="s">
+        <v>129</v>
+      </c>
+      <c r="D29" s="1" t="s">
+        <v>131</v>
+      </c>
+      <c r="E29" s="1" t="s">
+        <v>130</v>
+      </c>
+      <c r="F29" s="1" t="s">
+        <v>130</v>
+      </c>
+      <c r="G29" s="1" t="s">
+        <v>130</v>
+      </c>
+      <c r="H29" s="1" t="s">
+        <v>128</v>
+      </c>
+    </row>
+    <row r="30" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="A30" s="1"/>
+      <c r="B30" s="1"/>
+      <c r="C30" s="1"/>
+      <c r="D30" s="1"/>
+      <c r="E30" s="1"/>
+      <c r="F30" s="1"/>
+      <c r="G30" s="1"/>
+      <c r="H30" s="1"/>
+    </row>
+    <row r="31" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="A31" s="1"/>
+      <c r="B31" s="1"/>
+      <c r="C31" s="1"/>
+      <c r="D31" s="1"/>
+      <c r="E31" s="1"/>
+      <c r="F31" s="1"/>
+      <c r="G31" s="1"/>
+      <c r="H31" s="1"/>
+    </row>
+    <row r="32" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="A32" s="1"/>
+      <c r="B32" s="1"/>
+      <c r="C32" s="1"/>
+      <c r="D32" s="1"/>
+      <c r="E32" s="1"/>
+      <c r="F32" s="1"/>
+      <c r="G32" s="1"/>
+      <c r="H32" s="1"/>
+    </row>
+    <row r="33" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A33" s="1"/>
+      <c r="B33" s="1"/>
+      <c r="C33" s="1"/>
+      <c r="D33" s="1"/>
+      <c r="E33" s="1"/>
+      <c r="F33" s="1"/>
+      <c r="G33" s="1"/>
+      <c r="H33" s="1"/>
+    </row>
+    <row r="34" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A34" s="1"/>
+      <c r="B34" s="1"/>
+      <c r="C34" s="1"/>
+      <c r="D34" s="1"/>
+      <c r="E34" s="1"/>
+      <c r="F34" s="1"/>
+      <c r="G34" s="1"/>
+      <c r="H34" s="1"/>
+    </row>
+    <row r="35" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A35" s="1"/>
+      <c r="B35" s="1"/>
+      <c r="C35" s="1"/>
+      <c r="D35" s="1"/>
+      <c r="E35" s="1"/>
+      <c r="F35" s="1"/>
+      <c r="G35" s="1"/>
+      <c r="H35" s="1"/>
+    </row>
+    <row r="36" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A36" s="1"/>
+      <c r="B36" s="1"/>
+      <c r="C36" s="1"/>
+      <c r="D36" s="1"/>
+      <c r="E36" s="1"/>
+      <c r="F36" s="1"/>
+      <c r="G36" s="1"/>
+      <c r="H36" s="1"/>
     </row>
   </sheetData>
   <mergeCells count="7">

--- a/Daily Update/Daily Updates.xlsx
+++ b/Daily Update/Daily Updates.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\git\new1\Daily Update\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{96E3FBA0-E886-4084-825A-F6B6D1C9A320}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{02ECA172-3267-4CC1-915E-ECAAD0303203}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -80,7 +80,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="191" uniqueCount="132">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="198" uniqueCount="135">
   <si>
     <t>SQL by Mr.varun</t>
   </si>
@@ -520,6 +520,15 @@
   </si>
   <si>
     <t>servlet</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Steps to create D.W.Prjct </t>
+  </si>
+  <si>
+    <t>Sql Queries</t>
+  </si>
+  <si>
+    <t>SQL completed</t>
   </si>
 </sst>
 </file>
@@ -1049,7 +1058,7 @@
   <dimension ref="A1:I36"/>
   <sheetViews>
     <sheetView tabSelected="1" topLeftCell="A12" workbookViewId="0">
-      <selection activeCell="J31" sqref="J31"/>
+      <selection activeCell="H33" sqref="H33"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -1778,14 +1787,30 @@
       </c>
     </row>
     <row r="30" spans="1:9" x14ac:dyDescent="0.3">
-      <c r="A30" s="1"/>
-      <c r="B30" s="1"/>
-      <c r="C30" s="1"/>
-      <c r="D30" s="1"/>
-      <c r="E30" s="1"/>
-      <c r="F30" s="1"/>
-      <c r="G30" s="1"/>
-      <c r="H30" s="1"/>
+      <c r="A30" s="5">
+        <v>43981</v>
+      </c>
+      <c r="B30" s="1" t="s">
+        <v>22</v>
+      </c>
+      <c r="C30" s="1" t="s">
+        <v>132</v>
+      </c>
+      <c r="D30" s="1" t="s">
+        <v>132</v>
+      </c>
+      <c r="E30" s="1" t="s">
+        <v>133</v>
+      </c>
+      <c r="F30" s="1" t="s">
+        <v>130</v>
+      </c>
+      <c r="G30" s="1" t="s">
+        <v>130</v>
+      </c>
+      <c r="H30" s="1" t="s">
+        <v>134</v>
+      </c>
     </row>
     <row r="31" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A31" s="1"/>

--- a/Daily Update/Daily Updates.xlsx
+++ b/Daily Update/Daily Updates.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\git\new1\Daily Update\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{02ECA172-3267-4CC1-915E-ECAAD0303203}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{94E68292-1202-4B5D-B1DC-9E65CE48DC63}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -80,7 +80,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="198" uniqueCount="135">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="205" uniqueCount="138">
   <si>
     <t>SQL by Mr.varun</t>
   </si>
@@ -529,6 +529,15 @@
   </si>
   <si>
     <t>SQL completed</t>
+  </si>
+  <si>
+    <t xml:space="preserve">psuedo columns </t>
+  </si>
+  <si>
+    <t>tomcat server</t>
+  </si>
+  <si>
+    <t>SOLID Principles</t>
   </si>
 </sst>
 </file>
@@ -1813,14 +1822,30 @@
       </c>
     </row>
     <row r="31" spans="1:9" x14ac:dyDescent="0.3">
-      <c r="A31" s="1"/>
-      <c r="B31" s="1"/>
-      <c r="C31" s="1"/>
-      <c r="D31" s="1"/>
-      <c r="E31" s="1"/>
-      <c r="F31" s="1"/>
-      <c r="G31" s="1"/>
-      <c r="H31" s="1"/>
+      <c r="A31" s="5">
+        <v>43983</v>
+      </c>
+      <c r="B31" s="1" t="s">
+        <v>135</v>
+      </c>
+      <c r="C31" s="1" t="s">
+        <v>136</v>
+      </c>
+      <c r="D31" s="1" t="s">
+        <v>109</v>
+      </c>
+      <c r="E31" s="1" t="s">
+        <v>118</v>
+      </c>
+      <c r="F31" s="1" t="s">
+        <v>109</v>
+      </c>
+      <c r="G31" s="1" t="s">
+        <v>109</v>
+      </c>
+      <c r="H31" s="1" t="s">
+        <v>137</v>
+      </c>
     </row>
     <row r="32" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A32" s="1"/>

--- a/Daily Update/Daily Updates.xlsx
+++ b/Daily Update/Daily Updates.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\git\new1\Daily Update\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{94E68292-1202-4B5D-B1DC-9E65CE48DC63}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{6C764562-1A73-465F-BA69-3AD33D51A37A}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -80,7 +80,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="205" uniqueCount="138">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="212" uniqueCount="140">
   <si>
     <t>SQL by Mr.varun</t>
   </si>
@@ -538,6 +538,12 @@
   </si>
   <si>
     <t>SOLID Principles</t>
+  </si>
+  <si>
+    <t>Build &amp; deployment process</t>
+  </si>
+  <si>
+    <t>LSP</t>
   </si>
 </sst>
 </file>
@@ -1067,7 +1073,7 @@
   <dimension ref="A1:I36"/>
   <sheetViews>
     <sheetView tabSelected="1" topLeftCell="A12" workbookViewId="0">
-      <selection activeCell="H33" sqref="H33"/>
+      <selection activeCell="G34" sqref="G34"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -1848,14 +1854,30 @@
       </c>
     </row>
     <row r="32" spans="1:9" x14ac:dyDescent="0.3">
-      <c r="A32" s="1"/>
-      <c r="B32" s="1"/>
-      <c r="C32" s="1"/>
-      <c r="D32" s="1"/>
-      <c r="E32" s="1"/>
-      <c r="F32" s="1"/>
-      <c r="G32" s="1"/>
-      <c r="H32" s="1"/>
+      <c r="A32" s="5">
+        <v>43984</v>
+      </c>
+      <c r="B32" s="1" t="s">
+        <v>22</v>
+      </c>
+      <c r="C32" s="1" t="s">
+        <v>138</v>
+      </c>
+      <c r="D32" s="1" t="s">
+        <v>22</v>
+      </c>
+      <c r="E32" s="1" t="s">
+        <v>22</v>
+      </c>
+      <c r="F32" s="1" t="s">
+        <v>22</v>
+      </c>
+      <c r="G32" s="1" t="s">
+        <v>22</v>
+      </c>
+      <c r="H32" s="1" t="s">
+        <v>139</v>
+      </c>
     </row>
     <row r="33" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A33" s="1"/>

--- a/Daily Update/Daily Updates.xlsx
+++ b/Daily Update/Daily Updates.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\git\new1\Daily Update\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{6C764562-1A73-465F-BA69-3AD33D51A37A}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{6F4BBA97-5F30-4073-A01D-A757C7A22EAF}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -80,7 +80,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="212" uniqueCount="140">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="226" uniqueCount="144">
   <si>
     <t>SQL by Mr.varun</t>
   </si>
@@ -544,6 +544,18 @@
   </si>
   <si>
     <t>LSP</t>
+  </si>
+  <si>
+    <t>travel</t>
+  </si>
+  <si>
+    <t>webURL Structure</t>
+  </si>
+  <si>
+    <t>Key Element</t>
+  </si>
+  <si>
+    <t>singleton class</t>
   </si>
 </sst>
 </file>
@@ -1073,7 +1085,7 @@
   <dimension ref="A1:I36"/>
   <sheetViews>
     <sheetView tabSelected="1" topLeftCell="A12" workbookViewId="0">
-      <selection activeCell="G34" sqref="G34"/>
+      <selection activeCell="C35" sqref="C35"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -1880,24 +1892,56 @@
       </c>
     </row>
     <row r="33" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="A33" s="1"/>
-      <c r="B33" s="1"/>
-      <c r="C33" s="1"/>
-      <c r="D33" s="1"/>
-      <c r="E33" s="1"/>
-      <c r="F33" s="1"/>
-      <c r="G33" s="1"/>
-      <c r="H33" s="1"/>
+      <c r="A33" s="5">
+        <v>43985</v>
+      </c>
+      <c r="B33" s="1" t="s">
+        <v>135</v>
+      </c>
+      <c r="C33" s="1" t="s">
+        <v>141</v>
+      </c>
+      <c r="D33" s="1" t="s">
+        <v>140</v>
+      </c>
+      <c r="E33" s="1" t="s">
+        <v>140</v>
+      </c>
+      <c r="F33" s="1" t="s">
+        <v>140</v>
+      </c>
+      <c r="G33" s="1" t="s">
+        <v>140</v>
+      </c>
+      <c r="H33" s="1" t="s">
+        <v>140</v>
+      </c>
     </row>
     <row r="34" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="A34" s="1"/>
-      <c r="B34" s="1"/>
-      <c r="C34" s="1"/>
-      <c r="D34" s="1"/>
-      <c r="E34" s="1"/>
-      <c r="F34" s="1"/>
-      <c r="G34" s="1"/>
-      <c r="H34" s="1"/>
+      <c r="A34" s="5">
+        <v>43986</v>
+      </c>
+      <c r="B34" s="1" t="s">
+        <v>118</v>
+      </c>
+      <c r="C34" s="1" t="s">
+        <v>142</v>
+      </c>
+      <c r="D34" s="1" t="s">
+        <v>22</v>
+      </c>
+      <c r="E34" s="1" t="s">
+        <v>22</v>
+      </c>
+      <c r="F34" s="1" t="s">
+        <v>109</v>
+      </c>
+      <c r="G34" s="1" t="s">
+        <v>131</v>
+      </c>
+      <c r="H34" s="1" t="s">
+        <v>143</v>
+      </c>
     </row>
     <row r="35" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A35" s="1"/>

--- a/Daily Update/Daily Updates.xlsx
+++ b/Daily Update/Daily Updates.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\git\new1\Daily Update\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{6F4BBA97-5F30-4073-A01D-A757C7A22EAF}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{ED0BEB91-C01F-49EC-A351-FA3D99EB790F}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -80,7 +80,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="226" uniqueCount="144">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="240" uniqueCount="149">
   <si>
     <t>SQL by Mr.varun</t>
   </si>
@@ -556,6 +556,21 @@
   </si>
   <si>
     <t>singleton class</t>
+  </si>
+  <si>
+    <t>single row function</t>
+  </si>
+  <si>
+    <t>http request</t>
+  </si>
+  <si>
+    <t>Builder pattern</t>
+  </si>
+  <si>
+    <t>GET and POST</t>
+  </si>
+  <si>
+    <t>decorator</t>
   </si>
 </sst>
 </file>
@@ -1084,8 +1099,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:I36"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A12" workbookViewId="0">
-      <selection activeCell="C35" sqref="C35"/>
+    <sheetView tabSelected="1" topLeftCell="A17" workbookViewId="0">
+      <selection activeCell="H36" sqref="H36"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -1944,24 +1959,56 @@
       </c>
     </row>
     <row r="35" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="A35" s="1"/>
-      <c r="B35" s="1"/>
-      <c r="C35" s="1"/>
-      <c r="D35" s="1"/>
-      <c r="E35" s="1"/>
-      <c r="F35" s="1"/>
-      <c r="G35" s="1"/>
-      <c r="H35" s="1"/>
+      <c r="A35" s="5">
+        <v>43987</v>
+      </c>
+      <c r="B35" s="1" t="s">
+        <v>144</v>
+      </c>
+      <c r="C35" s="1" t="s">
+        <v>145</v>
+      </c>
+      <c r="D35" s="1" t="s">
+        <v>22</v>
+      </c>
+      <c r="E35" s="1" t="s">
+        <v>22</v>
+      </c>
+      <c r="F35" s="1" t="s">
+        <v>22</v>
+      </c>
+      <c r="G35" s="1" t="s">
+        <v>22</v>
+      </c>
+      <c r="H35" s="1" t="s">
+        <v>146</v>
+      </c>
     </row>
     <row r="36" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="A36" s="1"/>
-      <c r="B36" s="1"/>
-      <c r="C36" s="1"/>
-      <c r="D36" s="1"/>
-      <c r="E36" s="1"/>
-      <c r="F36" s="1"/>
-      <c r="G36" s="1"/>
-      <c r="H36" s="1"/>
+      <c r="A36" s="5">
+        <v>43988</v>
+      </c>
+      <c r="B36" s="1" t="s">
+        <v>144</v>
+      </c>
+      <c r="C36" s="1" t="s">
+        <v>147</v>
+      </c>
+      <c r="D36" s="1" t="s">
+        <v>109</v>
+      </c>
+      <c r="E36" s="1" t="s">
+        <v>109</v>
+      </c>
+      <c r="F36" s="1" t="s">
+        <v>109</v>
+      </c>
+      <c r="G36" s="1" t="s">
+        <v>109</v>
+      </c>
+      <c r="H36" s="1" t="s">
+        <v>148</v>
+      </c>
     </row>
   </sheetData>
   <mergeCells count="7">

--- a/Daily Update/Daily Updates.xlsx
+++ b/Daily Update/Daily Updates.xlsx
@@ -1,14 +1,14 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="4" rupBuild="22730"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="4" rupBuild="22827"/>
   <workbookPr defaultThemeVersion="124226"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\git\new1\Daily Update\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{ED0BEB91-C01F-49EC-A351-FA3D99EB790F}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{EE2E044C-4D26-43AA-A22B-BC18EF452A2E}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -80,7 +80,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="240" uniqueCount="149">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="254" uniqueCount="157">
   <si>
     <t>SQL by Mr.varun</t>
   </si>
@@ -571,6 +571,30 @@
   </si>
   <si>
     <t>decorator</t>
+  </si>
+  <si>
+    <t>proto type pattern</t>
+  </si>
+  <si>
+    <t>mock</t>
+  </si>
+  <si>
+    <t>assignment</t>
+  </si>
+  <si>
+    <t>transient &amp;persistance</t>
+  </si>
+  <si>
+    <t>null value logic</t>
+  </si>
+  <si>
+    <t>ER diagram</t>
+  </si>
+  <si>
+    <t>Servlet Container</t>
+  </si>
+  <si>
+    <t>jdbc+servlet program</t>
   </si>
 </sst>
 </file>
@@ -1097,10 +1121,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:I36"/>
+  <dimension ref="A1:I41"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A17" workbookViewId="0">
-      <selection activeCell="H36" sqref="H36"/>
+    <sheetView tabSelected="1" topLeftCell="A16" workbookViewId="0">
+      <selection activeCell="C40" sqref="C40"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -2009,6 +2033,88 @@
       <c r="H36" s="1" t="s">
         <v>148</v>
       </c>
+    </row>
+    <row r="37" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A37" s="5">
+        <v>43990</v>
+      </c>
+      <c r="B37" s="1" t="s">
+        <v>153</v>
+      </c>
+      <c r="C37" s="1" t="s">
+        <v>156</v>
+      </c>
+      <c r="D37" s="1" t="s">
+        <v>109</v>
+      </c>
+      <c r="E37" s="1" t="s">
+        <v>109</v>
+      </c>
+      <c r="F37" s="1" t="s">
+        <v>109</v>
+      </c>
+      <c r="G37" s="1" t="s">
+        <v>109</v>
+      </c>
+      <c r="H37" s="1" t="s">
+        <v>149</v>
+      </c>
+    </row>
+    <row r="38" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A38" s="5">
+        <v>43991</v>
+      </c>
+      <c r="B38" s="1" t="s">
+        <v>154</v>
+      </c>
+      <c r="C38" s="1" t="s">
+        <v>155</v>
+      </c>
+      <c r="D38" s="1" t="s">
+        <v>109</v>
+      </c>
+      <c r="E38" s="1" t="s">
+        <v>150</v>
+      </c>
+      <c r="F38" s="1" t="s">
+        <v>151</v>
+      </c>
+      <c r="G38" s="1" t="s">
+        <v>151</v>
+      </c>
+      <c r="H38" s="1" t="s">
+        <v>152</v>
+      </c>
+    </row>
+    <row r="39" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A39" s="1"/>
+      <c r="B39" s="1"/>
+      <c r="C39" s="1"/>
+      <c r="D39" s="1"/>
+      <c r="E39" s="1"/>
+      <c r="F39" s="1"/>
+      <c r="G39" s="1"/>
+      <c r="H39" s="1"/>
+    </row>
+    <row r="40" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A40" s="1"/>
+      <c r="B40" s="1"/>
+      <c r="C40" s="1"/>
+      <c r="D40" s="1"/>
+      <c r="E40" s="1"/>
+      <c r="F40" s="1"/>
+      <c r="G40" s="1"/>
+      <c r="H40" s="1"/>
+    </row>
+    <row r="41" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A41" s="1"/>
+      <c r="B41" s="1"/>
+      <c r="C41" s="1"/>
+      <c r="D41" s="1"/>
+      <c r="E41" s="1"/>
+      <c r="F41" s="1"/>
+      <c r="G41" s="1"/>
+      <c r="H41" s="1"/>
     </row>
   </sheetData>
   <mergeCells count="7">
